--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1593304.723967547</v>
+        <v>-1593969.505048966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480307</v>
+        <v>362195.2019480302</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14772605.54322195</v>
+        <v>14772605.54322196</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>98.93990648501767</v>
+        <v>46.94718012637674</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>46.94718012637664</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>80.87367775107997</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>80.87367775108063</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>46.94718012637656</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>20.05487793325262</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562692</v>
+        <v>40.19908950562699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89230219312412</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.587102757654752</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="T15" t="n">
-        <v>98.93990648501767</v>
+        <v>33.39519208195352</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87179703458428</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="V15" t="n">
-        <v>40.29306373012025</v>
+        <v>40.29306373012031</v>
       </c>
       <c r="W15" t="n">
-        <v>66.3487263917296</v>
+        <v>66.34872639172966</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418861</v>
+        <v>16.95705725418867</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874362</v>
+        <v>23.02842894874368</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.836158859791109</v>
+        <v>2.836158859791166</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440333</v>
+        <v>34.98996300440339</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542038</v>
+        <v>23.38309022542044</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171399</v>
+        <v>88.30041113171404</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916791</v>
+        <v>44.75315799916797</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405333</v>
+        <v>89.95484990405339</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296054</v>
+        <v>21.56359822296059</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888643</v>
+        <v>16.78541562888648</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.24036351260003</v>
+        <v>44.24036351260008</v>
       </c>
       <c r="C17" t="n">
-        <v>20.35862051594552</v>
+        <v>20.35862051594557</v>
       </c>
       <c r="D17" t="n">
-        <v>7.925282776993981</v>
+        <v>7.925282776994038</v>
       </c>
       <c r="E17" t="n">
-        <v>41.63203519640285</v>
+        <v>41.63203519640291</v>
       </c>
       <c r="F17" t="n">
-        <v>73.35237277478018</v>
+        <v>73.35237277478024</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282754</v>
+        <v>88.9794986128276</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428354</v>
+        <v>17.0537007542836</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.049586960533588</v>
+        <v>8.049586960533645</v>
       </c>
       <c r="X17" t="n">
-        <v>29.93583742947283</v>
+        <v>29.93583742947288</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.43869055321659</v>
+        <v>52.43869055321665</v>
       </c>
     </row>
     <row r="18">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>87.1462696320035</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.20375702702766</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260003</v>
+        <v>44.24036351260093</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594552</v>
+        <v>20.35862051594557</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776993981</v>
+        <v>7.925282776994038</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640285</v>
+        <v>41.63203519640291</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478018</v>
+        <v>73.35237277478024</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282754</v>
+        <v>88.9794986128276</v>
       </c>
       <c r="H20" t="n">
-        <v>17.05370075428357</v>
+        <v>17.05370075428362</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533588</v>
+        <v>8.049586960533645</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947217</v>
+        <v>29.93583742947288</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.43869055321659</v>
+        <v>52.43869055321665</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2163,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="E21" t="n">
-        <v>81.08256192171771</v>
+        <v>29.20375702702766</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>6.063707710285829</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="S21" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260003</v>
+        <v>44.24036351260008</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594552</v>
+        <v>20.35862051594557</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776993981</v>
+        <v>7.925282776994038</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640285</v>
+        <v>41.63203519640291</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478018</v>
+        <v>73.35237277478024</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282754</v>
+        <v>88.9794986128276</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428354</v>
+        <v>17.0537007542836</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533588</v>
+        <v>8.049586960533645</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947283</v>
+        <v>29.93583742947288</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.43869055321659</v>
+        <v>52.43869055321665</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="E24" t="n">
-        <v>81.08256192171773</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>35.26746473731343</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2265260322198</v>
+        <v>161.2265260322199</v>
       </c>
       <c r="C26" t="n">
         <v>137.3447830355653</v>
@@ -2561,19 +2561,19 @@
         <v>124.9114452966138</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6181977160226</v>
+        <v>158.6181977160227</v>
       </c>
       <c r="F26" t="n">
         <v>190.3385352944</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9656611324473</v>
+        <v>205.9656611324474</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0398632739033</v>
+        <v>134.0398632739034</v>
       </c>
       <c r="I26" t="n">
-        <v>27.6942323452954</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279257</v>
+        <v>14.38744503279258</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423113</v>
+        <v>9.553523565423149</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826922</v>
+        <v>37.28888334826925</v>
       </c>
       <c r="V26" t="n">
         <v>108.0190692635385</v>
@@ -2618,7 +2618,7 @@
         <v>125.0357494801534</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9219999490926</v>
+        <v>146.9219999490927</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4248530728364</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R27" t="n">
         <v>134.3278900205298</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.084766620974861</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U27" t="n">
-        <v>24.36693987425277</v>
+        <v>118.3409739323895</v>
       </c>
       <c r="V27" t="n">
-        <v>38.18004036149196</v>
+        <v>27.78820656978877</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139809</v>
+        <v>53.84386923139812</v>
       </c>
       <c r="X27" t="n">
-        <v>4.452200093857101</v>
+        <v>4.45220009385713</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841211</v>
+        <v>10.52357178841214</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407182</v>
+        <v>22.48510584407185</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508887</v>
+        <v>10.8782330650889</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138247</v>
+        <v>75.7955539713825</v>
       </c>
       <c r="V28" t="n">
-        <v>32.2483008388364</v>
+        <v>32.24830083883643</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372182</v>
+        <v>77.44999274372185</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062629025</v>
+        <v>9.058741062629053</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554915</v>
+        <v>4.280558468554943</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>161.2265260322199</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D29" t="n">
         <v>124.9114452966138</v>
@@ -2810,7 +2810,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529547</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279262</v>
+        <v>14.38744503279258</v>
       </c>
       <c r="T29" t="n">
-        <v>9.55352356542317</v>
+        <v>9.553523565423149</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826928</v>
+        <v>37.28888334826925</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W29" t="n">
         <v>125.0357494801534</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3278900205298</v>
+        <v>19.35911856801874</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T30" t="n">
-        <v>2.084766620974918</v>
+        <v>2.084766620974889</v>
       </c>
       <c r="U30" t="n">
-        <v>24.36693987425283</v>
+        <v>24.3669398742528</v>
       </c>
       <c r="V30" t="n">
-        <v>27.7882065697888</v>
+        <v>27.78820656978877</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139814</v>
+        <v>53.84386923139812</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>120.5260982676153</v>
+        <v>10.52357178841214</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407187</v>
+        <v>22.48510584407185</v>
       </c>
       <c r="T31" t="n">
-        <v>10.87823306508892</v>
+        <v>10.8782330650889</v>
       </c>
       <c r="U31" t="n">
-        <v>75.79555397138253</v>
+        <v>75.7955539713825</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883646</v>
+        <v>32.24830083883643</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372188</v>
+        <v>77.44999274372185</v>
       </c>
       <c r="X31" t="n">
-        <v>9.058741062629082</v>
+        <v>9.058741062629053</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468554972</v>
+        <v>4.280558468554943</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>161.2265260322199</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355654</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966139</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160228</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352944001</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324475</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739035</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529543</v>
+        <v>27.69423234529555</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279258</v>
+        <v>14.3874450327927</v>
       </c>
       <c r="T32" t="n">
-        <v>9.553523565423149</v>
+        <v>9.553523565423234</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826925</v>
+        <v>37.28888334826934</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635386</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0357494801534</v>
+        <v>125.0357494801535</v>
       </c>
       <c r="X32" t="n">
         <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4248530728364</v>
+        <v>169.4248530728365</v>
       </c>
     </row>
     <row r="33">
@@ -3111,22 +3111,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3179192096314</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.084766620974889</v>
+        <v>2.084766620974976</v>
       </c>
       <c r="U33" t="n">
-        <v>24.3669398742528</v>
+        <v>24.36693987425288</v>
       </c>
       <c r="V33" t="n">
-        <v>27.78820656978877</v>
+        <v>27.78820656978885</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.8438692313982</v>
       </c>
       <c r="X33" t="n">
-        <v>4.45220009385713</v>
+        <v>4.452200093857215</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.52357178841214</v>
+        <v>155.4447434110365</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407185</v>
+        <v>22.48510584407193</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508898</v>
       </c>
       <c r="U34" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138259</v>
       </c>
       <c r="V34" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883651</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372194</v>
       </c>
       <c r="X34" t="n">
-        <v>9.058741062629053</v>
+        <v>9.058741062629139</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468554943</v>
+        <v>4.280558468555029</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E35" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F35" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G35" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H35" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X35" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.7306207275409</v>
+        <v>141.730620727541</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>84.5864682954909</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09397422449328019</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>26.14963688610263</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>154.9018029233832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D38" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E38" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F38" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G38" t="n">
         <v>178.2714287871519</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V38" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W38" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X38" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.7306207275409</v>
+        <v>141.730620727541</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>24.42420025124196</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>12.72418595224307</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.09397422449328019</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V40" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W40" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G41" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973791</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.50743719073823</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J42" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276542198663</v>
+        <v>7.723058441080855</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W42" t="n">
-        <v>26.14963688610266</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E44" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F44" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G44" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973791</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.063707710285826</v>
       </c>
       <c r="R45" t="n">
-        <v>46.25669259939023</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09397422449330861</v>
+        <v>102.479159339714</v>
       </c>
       <c r="W45" t="n">
-        <v>26.14963688610266</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>248.3989323932078</v>
+        <v>295.8203264602555</v>
       </c>
       <c r="C11" t="n">
-        <v>248.3989323932078</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="D11" t="n">
-        <v>248.3989323932078</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="E11" t="n">
-        <v>148.459632913392</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="F11" t="n">
-        <v>148.459632913392</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="G11" t="n">
-        <v>48.52033343357615</v>
+        <v>48.52033343357614</v>
       </c>
       <c r="H11" t="n">
-        <v>48.52033343357615</v>
+        <v>48.52033343357614</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J11" t="n">
-        <v>52.73204505628172</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K11" t="n">
-        <v>150.6825524764492</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L11" t="n">
-        <v>199.2465091907914</v>
+        <v>56.47914923314358</v>
       </c>
       <c r="M11" t="n">
-        <v>282.1592279926917</v>
+        <v>139.391868035044</v>
       </c>
       <c r="N11" t="n">
-        <v>359.5711252503911</v>
+        <v>216.8037652927433</v>
       </c>
       <c r="O11" t="n">
-        <v>395.7596259400707</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="P11" t="n">
-        <v>395.7596259400707</v>
+        <v>297.8091185199039</v>
       </c>
       <c r="Q11" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="S11" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="T11" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="U11" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="V11" t="n">
-        <v>395.7596259400707</v>
+        <v>295.8203264602555</v>
       </c>
       <c r="W11" t="n">
-        <v>395.7596259400707</v>
+        <v>295.8203264602555</v>
       </c>
       <c r="X11" t="n">
-        <v>348.3382318730237</v>
+        <v>295.8203264602555</v>
       </c>
       <c r="Y11" t="n">
-        <v>348.3382318730237</v>
+        <v>295.8203264602555</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>189.5450755855667</v>
+        <v>189.5450755855676</v>
       </c>
       <c r="C12" t="n">
-        <v>89.60577610575089</v>
+        <v>189.5450755855676</v>
       </c>
       <c r="D12" t="n">
-        <v>7.915192518801414</v>
+        <v>89.60577610575157</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K12" t="n">
-        <v>46.88760930735563</v>
+        <v>46.88760930735565</v>
       </c>
       <c r="L12" t="n">
-        <v>144.8381167275231</v>
+        <v>144.8381167275234</v>
       </c>
       <c r="M12" t="n">
-        <v>212.9907034158986</v>
+        <v>242.7886241476911</v>
       </c>
       <c r="N12" t="n">
-        <v>310.9412108360661</v>
+        <v>310.941210836067</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360661</v>
+        <v>310.941210836067</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.6346686569537</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="R12" t="n">
-        <v>389.6346686569537</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="S12" t="n">
-        <v>389.6346686569537</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="T12" t="n">
-        <v>374.8976749384623</v>
+        <v>374.8976749384632</v>
       </c>
       <c r="U12" t="n">
-        <v>337.6534355095893</v>
+        <v>337.6534355095902</v>
       </c>
       <c r="V12" t="n">
-        <v>296.9533711357304</v>
+        <v>296.9533711357313</v>
       </c>
       <c r="W12" t="n">
-        <v>229.9344555885287</v>
+        <v>229.9344555885296</v>
       </c>
       <c r="X12" t="n">
-        <v>212.8061149277321</v>
+        <v>212.806114927733</v>
       </c>
       <c r="Y12" t="n">
-        <v>189.5450755855667</v>
+        <v>189.5450755855676</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801414</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801414</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="D13" t="n">
-        <v>62.53666738402693</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="E13" t="n">
-        <v>120.6295861973533</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="F13" t="n">
-        <v>120.6295861973533</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="G13" t="n">
-        <v>120.6295861973533</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="H13" t="n">
-        <v>120.6295861973533</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="I13" t="n">
-        <v>155.9349982232298</v>
+        <v>30.42673967391214</v>
       </c>
       <c r="J13" t="n">
-        <v>235.6204844669799</v>
+        <v>64.99289209935233</v>
       </c>
       <c r="K13" t="n">
-        <v>260.8939069396878</v>
+        <v>64.99289209935233</v>
       </c>
       <c r="L13" t="n">
-        <v>260.8939069396878</v>
+        <v>64.99289209935233</v>
       </c>
       <c r="M13" t="n">
-        <v>260.8939069396878</v>
+        <v>64.99289209935233</v>
       </c>
       <c r="N13" t="n">
-        <v>260.8939069396878</v>
+        <v>162.9433995195201</v>
       </c>
       <c r="O13" t="n">
-        <v>260.8939069396878</v>
+        <v>162.9433995195201</v>
       </c>
       <c r="P13" t="n">
         <v>260.8939069396878</v>
@@ -5236,13 +5236,13 @@
         <v>137.5150548984989</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692978</v>
+        <v>46.6515701469298</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050493</v>
+        <v>24.87015780050495</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.8810269804389</v>
+        <v>368.5956843308553</v>
       </c>
       <c r="C14" t="n">
-        <v>95.94172750062312</v>
+        <v>268.6563848510392</v>
       </c>
       <c r="D14" t="n">
-        <v>95.94172750062312</v>
+        <v>268.6563848510392</v>
       </c>
       <c r="E14" t="n">
-        <v>95.94172750062312</v>
+        <v>268.6563848510392</v>
       </c>
       <c r="F14" t="n">
-        <v>48.52033343357608</v>
+        <v>168.7170853712231</v>
       </c>
       <c r="G14" t="n">
-        <v>48.52033343357608</v>
+        <v>148.4596329133922</v>
       </c>
       <c r="H14" t="n">
-        <v>48.52033343357608</v>
+        <v>48.52033343357617</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J14" t="n">
-        <v>105.8656999389689</v>
+        <v>105.8656999389692</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8656999389689</v>
+        <v>105.8656999389692</v>
       </c>
       <c r="L14" t="n">
-        <v>154.4296566533111</v>
+        <v>154.4296566533113</v>
       </c>
       <c r="M14" t="n">
-        <v>237.3423754552114</v>
+        <v>237.3423754552117</v>
       </c>
       <c r="N14" t="n">
-        <v>314.7542727129108</v>
+        <v>314.7542727129111</v>
       </c>
       <c r="O14" t="n">
-        <v>350.9427734025904</v>
+        <v>350.9427734025907</v>
       </c>
       <c r="P14" t="n">
-        <v>350.9427734025904</v>
+        <v>389.6063942513662</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6063942513662</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="S14" t="n">
-        <v>395.7596259400707</v>
+        <v>368.5956843308553</v>
       </c>
       <c r="T14" t="n">
-        <v>395.7596259400707</v>
+        <v>368.5956843308553</v>
       </c>
       <c r="U14" t="n">
-        <v>395.7596259400707</v>
+        <v>368.5956843308553</v>
       </c>
       <c r="V14" t="n">
-        <v>395.7596259400707</v>
+        <v>368.5956843308553</v>
       </c>
       <c r="W14" t="n">
-        <v>295.8203264602548</v>
+        <v>368.5956843308553</v>
       </c>
       <c r="X14" t="n">
-        <v>195.8810269804389</v>
+        <v>368.5956843308553</v>
       </c>
       <c r="Y14" t="n">
-        <v>195.8810269804389</v>
+        <v>368.5956843308553</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="D15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="E15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="G15" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="H15" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K15" t="n">
-        <v>46.88760930735563</v>
+        <v>46.88760930735565</v>
       </c>
       <c r="L15" t="n">
-        <v>144.8381167275231</v>
+        <v>144.8381167275234</v>
       </c>
       <c r="M15" t="n">
-        <v>212.9907034158986</v>
+        <v>242.7886241476911</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9907034158986</v>
+        <v>242.7886241476911</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360661</v>
+        <v>310.941210836067</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="Q15" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="R15" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="S15" t="n">
-        <v>393.1463908313285</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="T15" t="n">
-        <v>293.2070913515126</v>
+        <v>255.9628519226401</v>
       </c>
       <c r="U15" t="n">
-        <v>255.9628519226396</v>
+        <v>156.023552442824</v>
       </c>
       <c r="V15" t="n">
-        <v>215.2627875487808</v>
+        <v>115.3234880689651</v>
       </c>
       <c r="W15" t="n">
-        <v>148.2438720015791</v>
+        <v>48.3045725217634</v>
       </c>
       <c r="X15" t="n">
-        <v>131.1155313407826</v>
+        <v>31.17623186096677</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801432</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.42673967391217</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="C16" t="n">
-        <v>30.42673967391217</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="D16" t="n">
-        <v>30.42673967391217</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="E16" t="n">
-        <v>30.42673967391217</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="F16" t="n">
-        <v>30.42673967391217</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="G16" t="n">
-        <v>61.7705101354491</v>
+        <v>22.84817332439235</v>
       </c>
       <c r="H16" t="n">
-        <v>61.7705101354491</v>
+        <v>22.84817332439235</v>
       </c>
       <c r="I16" t="n">
-        <v>61.7705101354491</v>
+        <v>58.15358535026888</v>
       </c>
       <c r="J16" t="n">
-        <v>61.7705101354491</v>
+        <v>137.839071594019</v>
       </c>
       <c r="K16" t="n">
-        <v>61.7705101354491</v>
+        <v>137.839071594019</v>
       </c>
       <c r="L16" t="n">
-        <v>64.99289209935222</v>
+        <v>137.839071594019</v>
       </c>
       <c r="M16" t="n">
-        <v>64.99289209935222</v>
+        <v>235.7895790141867</v>
       </c>
       <c r="N16" t="n">
-        <v>64.99289209935222</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="O16" t="n">
-        <v>162.9433995195197</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="P16" t="n">
-        <v>260.8939069396872</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343539</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="R16" t="n">
-        <v>330.875279505272</v>
+        <v>330.8752795052725</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311273</v>
+        <v>295.5318825311276</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751471</v>
+        <v>271.9125994751474</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986683</v>
+        <v>182.7202649986685</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984987</v>
+        <v>137.5150548984989</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692966</v>
+        <v>46.6515701469298</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050488</v>
+        <v>24.87015780050495</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271183</v>
+        <v>259.7349002271188</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796986</v>
+        <v>239.170637079699</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413209</v>
+        <v>231.1653009413212</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368735</v>
+        <v>189.112740136874</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037622</v>
+        <v>115.0194343037626</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666358</v>
+        <v>25.14115287666365</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I17" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J17" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K17" t="n">
-        <v>101.2960017706239</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L17" t="n">
-        <v>199.2465091907914</v>
+        <v>56.47914923314358</v>
       </c>
       <c r="M17" t="n">
-        <v>282.1592279926917</v>
+        <v>139.391868035044</v>
       </c>
       <c r="N17" t="n">
-        <v>359.5711252503911</v>
+        <v>216.8037652927433</v>
       </c>
       <c r="O17" t="n">
-        <v>395.7596259400707</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="P17" t="n">
-        <v>395.7596259400707</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="Q17" t="n">
-        <v>395.7596259400707</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="R17" t="n">
-        <v>395.7596259400707</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="S17" t="n">
-        <v>395.7596259400707</v>
+        <v>350.9427734025907</v>
       </c>
       <c r="T17" t="n">
-        <v>395.7596259400707</v>
+        <v>386.8822036165512</v>
       </c>
       <c r="U17" t="n">
-        <v>395.7596259400707</v>
+        <v>386.8822036165512</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203399</v>
+        <v>387.6287300203405</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946098</v>
+        <v>357.3905103946105</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984314</v>
+        <v>304.422136098432</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.881026980439</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="C18" t="n">
-        <v>195.881026980439</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="D18" t="n">
-        <v>95.94172750062313</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="E18" t="n">
-        <v>95.94172750062313</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="F18" t="n">
-        <v>7.915192518801414</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801414</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801414</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801414</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K18" t="n">
-        <v>46.88760930735563</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L18" t="n">
-        <v>144.8381167275231</v>
+        <v>105.8656999389692</v>
       </c>
       <c r="M18" t="n">
-        <v>199.8586110997357</v>
+        <v>203.8162073591369</v>
       </c>
       <c r="N18" t="n">
-        <v>297.8091185199032</v>
+        <v>212.9907034158993</v>
       </c>
       <c r="O18" t="n">
-        <v>395.7596259400707</v>
+        <v>310.941210836067</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="Q18" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="R18" t="n">
-        <v>395.7596259400707</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="S18" t="n">
-        <v>395.7596259400707</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="T18" t="n">
-        <v>395.7596259400707</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="U18" t="n">
-        <v>395.7596259400707</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="V18" t="n">
-        <v>395.7596259400707</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="W18" t="n">
-        <v>295.8203264602548</v>
+        <v>189.7560696973225</v>
       </c>
       <c r="X18" t="n">
-        <v>295.8203264602548</v>
+        <v>189.7560696973225</v>
       </c>
       <c r="Y18" t="n">
-        <v>295.8203264602548</v>
+        <v>160.2573252255774</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271189</v>
+        <v>259.7349002271182</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796992</v>
+        <v>239.1706370796985</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413214</v>
+        <v>231.1653009413207</v>
       </c>
       <c r="E20" t="n">
-        <v>189.1127401368742</v>
+        <v>189.1127401368734</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037629</v>
+        <v>115.019434303762</v>
       </c>
       <c r="G20" t="n">
-        <v>25.1411528766636</v>
+        <v>25.14115287666368</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J20" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K20" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L20" t="n">
-        <v>56.47914923314356</v>
+        <v>56.47914923314358</v>
       </c>
       <c r="M20" t="n">
-        <v>139.3918680350439</v>
+        <v>139.391868035044</v>
       </c>
       <c r="N20" t="n">
         <v>216.8037652927433</v>
@@ -5780,22 +5780,22 @@
         <v>252.9922659824229</v>
       </c>
       <c r="T20" t="n">
-        <v>316.8593195604336</v>
+        <v>316.8593195604346</v>
       </c>
       <c r="U20" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203398</v>
+        <v>387.6287300203407</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946104</v>
+        <v>357.3905103946105</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984322</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.756069697322</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="C21" t="n">
-        <v>189.756069697322</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="D21" t="n">
-        <v>189.756069697322</v>
+        <v>189.7560696973225</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8544919986173</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8544919986173</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8544919986173</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="H21" t="n">
-        <v>7.915192518801414</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801414</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K21" t="n">
-        <v>46.88760930735563</v>
+        <v>46.88760930735565</v>
       </c>
       <c r="L21" t="n">
-        <v>46.88760930735563</v>
+        <v>115.0401959957316</v>
       </c>
       <c r="M21" t="n">
-        <v>144.8381167275231</v>
+        <v>212.9907034158993</v>
       </c>
       <c r="N21" t="n">
-        <v>212.9907034158986</v>
+        <v>212.9907034158993</v>
       </c>
       <c r="O21" t="n">
-        <v>310.9412108360661</v>
+        <v>310.941210836067</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569537</v>
+        <v>389.6346686569546</v>
       </c>
       <c r="R21" t="n">
-        <v>389.6346686569537</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="S21" t="n">
-        <v>289.6953691771379</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="T21" t="n">
-        <v>289.6953691771379</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="U21" t="n">
-        <v>189.756069697322</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="V21" t="n">
-        <v>189.756069697322</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="W21" t="n">
-        <v>189.756069697322</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="X21" t="n">
-        <v>189.756069697322</v>
+        <v>289.6953691771386</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.756069697322</v>
+        <v>289.6953691771386</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="C22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="D22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="E22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="F22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="G22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="H22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="M22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="N22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="O22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="P22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="R22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="S22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="T22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="U22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="V22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="W22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="X22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.7596259400707</v>
+        <v>7.915192518801432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271182</v>
+        <v>259.7349002271185</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796985</v>
+        <v>239.1706370796988</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413207</v>
+        <v>231.165300941321</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368734</v>
+        <v>189.1127401368736</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037621</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666358</v>
+        <v>25.14115287666365</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I23" t="n">
-        <v>52.73204505628173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J23" t="n">
-        <v>52.73204505628173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K23" t="n">
-        <v>52.73204505628173</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L23" t="n">
-        <v>101.2960017706239</v>
+        <v>56.47914923314358</v>
       </c>
       <c r="M23" t="n">
-        <v>184.2087205725242</v>
+        <v>139.391868035044</v>
       </c>
       <c r="N23" t="n">
-        <v>261.6206178302236</v>
+        <v>216.8037652927433</v>
       </c>
       <c r="O23" t="n">
-        <v>297.8091185199032</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="P23" t="n">
-        <v>297.8091185199032</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="Q23" t="n">
-        <v>297.8091185199032</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="R23" t="n">
-        <v>395.7596259400707</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="S23" t="n">
-        <v>395.7596259400707</v>
+        <v>252.9922659824229</v>
       </c>
       <c r="T23" t="n">
-        <v>395.7596259400707</v>
+        <v>316.8593195604344</v>
       </c>
       <c r="U23" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203398</v>
+        <v>387.6287300203404</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946097</v>
+        <v>357.3905103946102</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984313</v>
+        <v>304.4221360984318</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>289.6953691771379</v>
+        <v>260.1966247053934</v>
       </c>
       <c r="C24" t="n">
-        <v>289.6953691771379</v>
+        <v>160.2573252255774</v>
       </c>
       <c r="D24" t="n">
-        <v>289.6953691771379</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="E24" t="n">
-        <v>207.7937914784331</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="F24" t="n">
-        <v>207.7937914784331</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="G24" t="n">
-        <v>107.8544919986173</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="H24" t="n">
-        <v>107.8544919986173</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801414</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K24" t="n">
-        <v>46.88760930735563</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L24" t="n">
-        <v>144.8381167275231</v>
+        <v>105.8656999389692</v>
       </c>
       <c r="M24" t="n">
-        <v>212.9907034158986</v>
+        <v>203.8162073591369</v>
       </c>
       <c r="N24" t="n">
-        <v>310.9412108360661</v>
+        <v>297.8091185199039</v>
       </c>
       <c r="O24" t="n">
-        <v>310.9412108360661</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569537</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="R24" t="n">
-        <v>289.6953691771379</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="S24" t="n">
-        <v>289.6953691771379</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="T24" t="n">
-        <v>289.6953691771379</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="U24" t="n">
-        <v>289.6953691771379</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="V24" t="n">
-        <v>289.6953691771379</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="W24" t="n">
-        <v>289.6953691771379</v>
+        <v>395.7596259400716</v>
       </c>
       <c r="X24" t="n">
-        <v>289.6953691771379</v>
+        <v>360.1359241852095</v>
       </c>
       <c r="Y24" t="n">
-        <v>289.6953691771379</v>
+        <v>360.1359241852095</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801414</v>
+        <v>7.915192518801432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.891650267093</v>
+        <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907642</v>
+        <v>886.1595461907657</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234777</v>
+        <v>759.986369123479</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901214</v>
+        <v>599.7659673901228</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281014</v>
+        <v>407.5048206281025</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720939</v>
+        <v>199.458698272095</v>
       </c>
       <c r="H26" t="n">
-        <v>64.06489698532361</v>
+        <v>64.06489698532367</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="J26" t="n">
         <v>171.8005131365276</v>
@@ -6230,10 +6230,10 @@
         <v>377.3583775511678</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676673</v>
+        <v>636.6544414676674</v>
       </c>
       <c r="M26" t="n">
-        <v>930.299267471725</v>
+        <v>930.2992674717251</v>
       </c>
       <c r="N26" t="n">
         <v>1218.443271931582</v>
@@ -6242,34 +6242,34 @@
         <v>1465.363879823419</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.834462498259</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205690999</v>
+        <v>1786.013205691</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968433</v>
+        <v>1804.546245968434</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208036</v>
+        <v>1790.013473208037</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.363449404578</v>
+        <v>1780.36344940458</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668954</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695681</v>
+        <v>1633.587739695683</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.289002847041</v>
+        <v>1507.289002847043</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.882942292402</v>
+        <v>1358.882942292404</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.746727067315</v>
+        <v>1187.746727067316</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>531.0654439564383</v>
+        <v>225.503199186405</v>
       </c>
       <c r="C27" t="n">
-        <v>531.0654439564383</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="D27" t="n">
-        <v>370.2853277174701</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="E27" t="n">
-        <v>196.7221238388845</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="F27" t="n">
-        <v>196.7221238388845</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="G27" t="n">
-        <v>196.7221238388845</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="H27" t="n">
-        <v>196.7221238388845</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="I27" t="n">
-        <v>88.49375814632853</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792289</v>
+        <v>75.0633417079229</v>
       </c>
       <c r="L27" t="n">
-        <v>193.7531079096929</v>
+        <v>193.753107909693</v>
       </c>
       <c r="M27" t="n">
         <v>377.0131310500095</v>
@@ -6324,31 +6324,31 @@
         <v>801.5495631391824</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.5495631391824</v>
+        <v>795.4246058560653</v>
       </c>
       <c r="R27" t="n">
-        <v>665.8648257447079</v>
+        <v>659.7398684615908</v>
       </c>
       <c r="S27" t="n">
-        <v>665.8648257447079</v>
+        <v>659.7398684615908</v>
       </c>
       <c r="T27" t="n">
-        <v>663.7590008750363</v>
+        <v>442.6232210205925</v>
       </c>
       <c r="U27" t="n">
-        <v>639.145930294983</v>
+        <v>323.0868837151486</v>
       </c>
       <c r="V27" t="n">
-        <v>600.5802329601427</v>
+        <v>295.0179881901094</v>
       </c>
       <c r="W27" t="n">
-        <v>546.1924862617608</v>
+        <v>240.6302414917275</v>
       </c>
       <c r="X27" t="n">
-        <v>541.695314449784</v>
+        <v>236.1330696797506</v>
       </c>
       <c r="Y27" t="n">
-        <v>531.0654439564383</v>
+        <v>225.503199186405</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09092491936866</v>
+        <v>65.88195338120019</v>
       </c>
       <c r="K28" t="n">
-        <v>181.0720313485965</v>
+        <v>65.88195338120019</v>
       </c>
       <c r="L28" t="n">
-        <v>181.0720313485965</v>
+        <v>65.88195338120019</v>
       </c>
       <c r="M28" t="n">
-        <v>181.0720313485965</v>
+        <v>65.88195338120019</v>
       </c>
       <c r="N28" t="n">
-        <v>181.0720313485965</v>
+        <v>261.0608186465666</v>
       </c>
       <c r="O28" t="n">
-        <v>270.6328299641013</v>
+        <v>261.0608186465666</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641013</v>
+        <v>261.0608186465666</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641013</v>
+        <v>261.0608186465666</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641016</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387763</v>
+        <v>247.9206018387765</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316158</v>
+        <v>236.932487631616</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039567</v>
+        <v>160.3713220039569</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7972807526068</v>
+        <v>127.7972807526069</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985749</v>
+        <v>49.56496484985757</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225241</v>
+        <v>40.41472135225246</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
     </row>
     <row r="29">
@@ -6446,64 +6446,64 @@
         <v>759.9863691234787</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901223</v>
+        <v>599.7659673901225</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281021</v>
+        <v>407.5048206281023</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720946</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532368</v>
+        <v>64.06489698532367</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365271</v>
+        <v>171.8005131365278</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511674</v>
+        <v>377.3583775511681</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676669</v>
+        <v>636.6544414676675</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717245</v>
+        <v>930.2992674717252</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.443271931582</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.363879823418</v>
+        <v>1465.363879823419</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.834462498259</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968433</v>
+        <v>1804.546245968434</v>
       </c>
       <c r="S29" t="n">
         <v>1790.013473208037</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.36344940458</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668954</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695683</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.289002847042</v>
+        <v>1507.289002847043</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292404</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.746727067316</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>215.4377600846062</v>
+        <v>249.2738743852968</v>
       </c>
       <c r="C30" t="n">
-        <v>215.4377600846062</v>
+        <v>249.2738743852968</v>
       </c>
       <c r="D30" t="n">
-        <v>215.4377600846062</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="E30" t="n">
-        <v>215.4377600846062</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="F30" t="n">
-        <v>215.4377600846062</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="G30" t="n">
-        <v>215.4377600846062</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="H30" t="n">
-        <v>88.49375814632853</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="I30" t="n">
-        <v>88.49375814632853</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="K30" t="n">
-        <v>75.06334170792289</v>
+        <v>75.0633417079229</v>
       </c>
       <c r="L30" t="n">
-        <v>193.7531079096929</v>
+        <v>193.753107909693</v>
       </c>
       <c r="M30" t="n">
         <v>377.0131310500095</v>
@@ -6564,28 +6564,28 @@
         <v>801.5495631391824</v>
       </c>
       <c r="R30" t="n">
-        <v>665.8648257447079</v>
+        <v>781.9948979189614</v>
       </c>
       <c r="S30" t="n">
-        <v>665.8648257447079</v>
+        <v>588.5872769350919</v>
       </c>
       <c r="T30" t="n">
-        <v>663.7590008750362</v>
+        <v>586.4814520654204</v>
       </c>
       <c r="U30" t="n">
-        <v>639.1459302949829</v>
+        <v>561.8683814853671</v>
       </c>
       <c r="V30" t="n">
-        <v>611.0770347699437</v>
+        <v>533.799485960328</v>
       </c>
       <c r="W30" t="n">
-        <v>556.6892880715617</v>
+        <v>479.411739261946</v>
       </c>
       <c r="X30" t="n">
-        <v>337.1812936882581</v>
+        <v>259.9037448786424</v>
       </c>
       <c r="Y30" t="n">
-        <v>215.4377600846062</v>
+        <v>249.2738743852968</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="D31" t="n">
-        <v>47.38550898800927</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="E31" t="n">
-        <v>47.38550898800927</v>
+        <v>106.5636523214233</v>
       </c>
       <c r="F31" t="n">
-        <v>47.38550898800927</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="G31" t="n">
-        <v>91.10908803827434</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="H31" t="n">
-        <v>137.7216212661021</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="I31" t="n">
-        <v>185.4068418807069</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="J31" t="n">
-        <v>185.4068418807069</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="K31" t="n">
-        <v>185.4068418807069</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="L31" t="n">
-        <v>185.4068418807069</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="M31" t="n">
-        <v>185.4068418807069</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="N31" t="n">
-        <v>185.4068418807069</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="O31" t="n">
-        <v>185.4068418807069</v>
+        <v>117.1608992936122</v>
       </c>
       <c r="P31" t="n">
-        <v>185.4068418807069</v>
+        <v>270.6328299641016</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641016</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641016</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387766</v>
+        <v>247.9206018387765</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316161</v>
+        <v>236.932487631616</v>
       </c>
       <c r="U31" t="n">
         <v>160.3713220039569</v>
       </c>
       <c r="V31" t="n">
-        <v>127.797280752607</v>
+        <v>127.7972807526069</v>
       </c>
       <c r="W31" t="n">
-        <v>49.5649648498576</v>
+        <v>49.56496484985757</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225247</v>
+        <v>40.41472135225246</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907652</v>
+        <v>886.1595461907654</v>
       </c>
       <c r="D32" t="n">
         <v>759.9863691234785</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901223</v>
+        <v>599.7659673901222</v>
       </c>
       <c r="F32" t="n">
-        <v>407.504820628102</v>
+        <v>407.5048206281019</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4586982720948</v>
+        <v>199.4586982720939</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532364</v>
+        <v>64.06489698532378</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8005131365276</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511678</v>
+        <v>377.3583775511676</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676665</v>
+        <v>636.6544414676669</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717242</v>
+        <v>930.2992674717244</v>
       </c>
       <c r="N32" t="n">
         <v>1218.443271931581</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823418</v>
+        <v>1465.363879823419</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.834462498259</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.013205690999</v>
+        <v>1786.013205691</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968433</v>
+        <v>1804.546245968434</v>
       </c>
       <c r="S32" t="n">
         <v>1790.013473208037</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.36344940458</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668954</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695683</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.289002847042</v>
+        <v>1507.289002847043</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292404</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.746727067316</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>462.2361605893872</v>
+        <v>530.8619613196784</v>
       </c>
       <c r="C33" t="n">
-        <v>462.2361605893872</v>
+        <v>530.8619613196784</v>
       </c>
       <c r="D33" t="n">
-        <v>462.2361605893872</v>
+        <v>370.0818450807101</v>
       </c>
       <c r="E33" t="n">
-        <v>288.6729567108017</v>
+        <v>196.5186412021246</v>
       </c>
       <c r="F33" t="n">
-        <v>288.6729567108017</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="G33" t="n">
-        <v>138.4322574543499</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="H33" t="n">
-        <v>138.4322574543499</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06334170792289</v>
+        <v>75.06334170792286</v>
       </c>
       <c r="L33" t="n">
         <v>193.7531079096929</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0131310500095</v>
+        <v>377.0131310500093</v>
       </c>
       <c r="N33" t="n">
-        <v>583.5433912625122</v>
+        <v>583.5433912625119</v>
       </c>
       <c r="O33" t="n">
-        <v>716.7311480351777</v>
+        <v>716.7311480351774</v>
       </c>
       <c r="P33" t="n">
-        <v>801.5495631391824</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.5495631391824</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="R33" t="n">
-        <v>801.5495631391824</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="S33" t="n">
-        <v>801.5495631391824</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="T33" t="n">
-        <v>799.4437382695108</v>
+        <v>799.4437382695103</v>
       </c>
       <c r="U33" t="n">
-        <v>774.8306676894575</v>
+        <v>774.8306676894568</v>
       </c>
       <c r="V33" t="n">
-        <v>746.7617721644184</v>
+        <v>746.7617721644176</v>
       </c>
       <c r="W33" t="n">
-        <v>477.3632028947097</v>
+        <v>692.3740254660356</v>
       </c>
       <c r="X33" t="n">
-        <v>472.8660310827328</v>
+        <v>687.8768536540587</v>
       </c>
       <c r="Y33" t="n">
-        <v>462.2361605893872</v>
+        <v>530.8619613196784</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09092491936866</v>
+        <v>103.0922083733223</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09092491936866</v>
+        <v>103.0922083733223</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09092491936866</v>
+        <v>176.2867021792174</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09092491936866</v>
+        <v>220.0102812294824</v>
       </c>
       <c r="H34" t="n">
-        <v>82.7034581471965</v>
+        <v>220.0102812294824</v>
       </c>
       <c r="I34" t="n">
-        <v>82.7034581471965</v>
+        <v>220.0102812294824</v>
       </c>
       <c r="J34" t="n">
-        <v>82.7034581471965</v>
+        <v>220.0102812294824</v>
       </c>
       <c r="K34" t="n">
-        <v>82.7034581471965</v>
+        <v>220.0102812294824</v>
       </c>
       <c r="L34" t="n">
-        <v>261.0608186465665</v>
+        <v>220.0102812294824</v>
       </c>
       <c r="M34" t="n">
-        <v>261.0608186465665</v>
+        <v>220.0102812294824</v>
       </c>
       <c r="N34" t="n">
-        <v>261.0608186465665</v>
+        <v>270.6328299641021</v>
       </c>
       <c r="O34" t="n">
-        <v>261.0608186465665</v>
+        <v>270.6328299641021</v>
       </c>
       <c r="P34" t="n">
-        <v>261.0608186465665</v>
+        <v>270.6328299641021</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.0608186465665</v>
+        <v>270.6328299641021</v>
       </c>
       <c r="R34" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641021</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387764</v>
+        <v>247.9206018387769</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316159</v>
+        <v>236.9324876316164</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039568</v>
+        <v>160.3713220039572</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526069</v>
+        <v>127.7972807526072</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56496484985755</v>
+        <v>49.56496484985774</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225244</v>
+        <v>40.41472135225255</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09092491936866</v>
+        <v>36.09092491936868</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.1586532866081</v>
+        <v>821.158653286608</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762347</v>
+        <v>710.4005212762343</v>
       </c>
       <c r="D35" t="n">
-        <v>612.2013162749029</v>
+        <v>612.2013162749024</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075013</v>
+        <v>479.9548866075007</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114354</v>
       </c>
       <c r="G35" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J35" t="n">
-        <v>191.3026106395687</v>
+        <v>134.0286062380148</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2777650760515</v>
+        <v>134.0286062380148</v>
       </c>
       <c r="L35" t="n">
-        <v>658.8913574003557</v>
+        <v>420.7419601763567</v>
       </c>
       <c r="M35" t="n">
-        <v>979.9534734262559</v>
+        <v>741.8040762022567</v>
       </c>
       <c r="N35" t="n">
-        <v>1295.514767907955</v>
+        <v>1057.365370683956</v>
       </c>
       <c r="O35" t="n">
         <v>1331.703268597635</v>
@@ -6965,7 +6965,7 @@
         <v>1390.827318336289</v>
       </c>
       <c r="T35" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U35" t="n">
         <v>1399.095053358692</v>
@@ -6980,7 +6980,7 @@
         <v>1099.202001180008</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208752</v>
+        <v>956.0397580208751</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>391.1512105461891</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C36" t="n">
-        <v>201.7389362791528</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D36" t="n">
-        <v>201.7389362791528</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K36" t="n">
-        <v>67.14814918912147</v>
+        <v>67.14814918912144</v>
       </c>
       <c r="L36" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M36" t="n">
-        <v>369.0979385312081</v>
+        <v>369.0979385312079</v>
       </c>
       <c r="N36" t="n">
-        <v>575.6281987437106</v>
+        <v>575.6281987437105</v>
       </c>
       <c r="O36" t="n">
-        <v>708.8159555163761</v>
+        <v>708.815955516376</v>
       </c>
       <c r="P36" t="n">
-        <v>793.6343706203808</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="Q36" t="n">
-        <v>793.6343706203808</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="R36" t="n">
-        <v>793.6343706203808</v>
+        <v>708.1934935542281</v>
       </c>
       <c r="S36" t="n">
-        <v>793.6343706203808</v>
+        <v>514.7858725703585</v>
       </c>
       <c r="T36" t="n">
-        <v>793.6343706203808</v>
+        <v>297.6692251293601</v>
       </c>
       <c r="U36" t="n">
-        <v>793.6343706203808</v>
+        <v>297.6692251293601</v>
       </c>
       <c r="V36" t="n">
-        <v>793.5394471612966</v>
+        <v>54.58950703299421</v>
       </c>
       <c r="W36" t="n">
-        <v>767.1256725288697</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X36" t="n">
-        <v>547.6176781455661</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y36" t="n">
-        <v>391.1512105461891</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.78664121117419</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="C37" t="n">
-        <v>35.78664121117419</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="D37" t="n">
-        <v>35.78664121117419</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="E37" t="n">
-        <v>35.78664121117419</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="F37" t="n">
-        <v>35.78664121117419</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="G37" t="n">
-        <v>35.78664121117419</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="H37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="I37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="J37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="K37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="L37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="M37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="N37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="O37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="P37" t="n">
-        <v>109.8164644608446</v>
+        <v>69.80440590838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.8164644608446</v>
+        <v>77.98419835767876</v>
       </c>
       <c r="R37" t="n">
-        <v>109.8164644608446</v>
+        <v>114.9734996970562</v>
       </c>
       <c r="S37" t="n">
-        <v>114.973499697056</v>
+        <v>114.9734996970562</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U37" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X37" t="n">
-        <v>35.78664121117419</v>
+        <v>46.62486877040697</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.78664121117419</v>
+        <v>69.80440590838006</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866077</v>
+        <v>821.1586532866078</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762339</v>
+        <v>710.4005212762341</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749023</v>
+        <v>612.2013162749024</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075011</v>
+        <v>479.9548866075012</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114359</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213837</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H38" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I38" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J38" t="n">
-        <v>191.3026106395687</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2777650760515</v>
+        <v>234.8434947747481</v>
       </c>
       <c r="L38" t="n">
-        <v>472.8417217903936</v>
+        <v>521.5568487130899</v>
       </c>
       <c r="M38" t="n">
-        <v>793.9038378162938</v>
+        <v>604.4695675149902</v>
       </c>
       <c r="N38" t="n">
-        <v>1075.324672376029</v>
+        <v>681.8814647726896</v>
       </c>
       <c r="O38" t="n">
-        <v>1349.662570289708</v>
+        <v>956.2193626863689</v>
       </c>
       <c r="P38" t="n">
-        <v>1349.662570289708</v>
+        <v>1181.107235383051</v>
       </c>
       <c r="Q38" t="n">
-        <v>1349.662570289708</v>
+        <v>1331.703268597635</v>
       </c>
       <c r="R38" t="n">
-        <v>1395.612900588985</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="S38" t="n">
-        <v>1408.786620028362</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="T38" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U38" t="n">
         <v>1399.095053358692</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>505.1632075253971</v>
+        <v>547.6176781455658</v>
       </c>
       <c r="C39" t="n">
-        <v>315.7509332583608</v>
+        <v>547.6176781455658</v>
       </c>
       <c r="D39" t="n">
-        <v>315.7509332583608</v>
+        <v>386.8375619065976</v>
       </c>
       <c r="E39" t="n">
-        <v>315.7509332583608</v>
+        <v>213.274358028012</v>
       </c>
       <c r="F39" t="n">
-        <v>315.7509332583608</v>
+        <v>52.84664174525611</v>
       </c>
       <c r="G39" t="n">
-        <v>315.7509332583608</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H39" t="n">
-        <v>188.8069313200831</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I39" t="n">
-        <v>80.57856562752711</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K39" t="n">
-        <v>67.14814918912147</v>
+        <v>67.14814918912144</v>
       </c>
       <c r="L39" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M39" t="n">
-        <v>369.0979385312081</v>
+        <v>369.0979385312079</v>
       </c>
       <c r="N39" t="n">
-        <v>575.6281987437106</v>
+        <v>575.6281987437105</v>
       </c>
       <c r="O39" t="n">
-        <v>708.8159555163761</v>
+        <v>708.815955516376</v>
       </c>
       <c r="P39" t="n">
-        <v>793.6343706203808</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="Q39" t="n">
-        <v>787.5094133372637</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="R39" t="n">
-        <v>787.5094133372637</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="S39" t="n">
-        <v>787.5094133372637</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="T39" t="n">
-        <v>774.6567002541899</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="U39" t="n">
-        <v>774.6567002541899</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="V39" t="n">
-        <v>774.5617767951057</v>
+        <v>793.5394471612964</v>
       </c>
       <c r="W39" t="n">
-        <v>505.1632075253971</v>
+        <v>767.1256725288695</v>
       </c>
       <c r="X39" t="n">
-        <v>505.1632075253971</v>
+        <v>547.6176781455658</v>
       </c>
       <c r="Y39" t="n">
-        <v>505.1632075253971</v>
+        <v>547.6176781455658</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.61671163530872</v>
+        <v>33.73132156056361</v>
       </c>
       <c r="C40" t="n">
-        <v>114.973499697056</v>
+        <v>33.73132156056361</v>
       </c>
       <c r="D40" t="n">
-        <v>114.973499697056</v>
+        <v>33.73132156056361</v>
       </c>
       <c r="E40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="F40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="G40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="H40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="I40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="J40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="K40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="L40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="M40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="N40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="O40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="P40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T40" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U40" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W40" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X40" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866074</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762336</v>
+        <v>710.4005212762337</v>
       </c>
       <c r="D41" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749022</v>
       </c>
       <c r="E41" t="n">
-        <v>479.9548866075006</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F41" t="n">
-        <v>315.6677119114356</v>
+        <v>315.6677119114357</v>
       </c>
       <c r="G41" t="n">
         <v>135.5955616213834</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J41" t="n">
-        <v>191.3026106395687</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2777650760514</v>
+        <v>424.2777650760513</v>
       </c>
       <c r="L41" t="n">
-        <v>710.9911190143935</v>
+        <v>710.9911190143931</v>
       </c>
       <c r="M41" t="n">
-        <v>793.9038378162938</v>
+        <v>1032.053235040293</v>
       </c>
       <c r="N41" t="n">
-        <v>871.3157350739932</v>
+        <v>1116.577225510549</v>
       </c>
       <c r="O41" t="n">
-        <v>1145.653632987673</v>
+        <v>1152.765726200229</v>
       </c>
       <c r="P41" t="n">
-        <v>1212.240256514502</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="Q41" t="n">
-        <v>1362.836289729086</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.786620028362</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.786620028362</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U41" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W41" t="n">
         <v>1219.634089668691</v>
@@ -7454,7 +7454,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.0397580208743</v>
+        <v>956.0397580208745</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.7072900626162</v>
+        <v>296.8318143758792</v>
       </c>
       <c r="C42" t="n">
-        <v>142.7072900626162</v>
+        <v>296.8318143758792</v>
       </c>
       <c r="D42" t="n">
-        <v>142.7072900626162</v>
+        <v>296.8318143758792</v>
       </c>
       <c r="E42" t="n">
-        <v>142.7072900626162</v>
+        <v>296.8318143758792</v>
       </c>
       <c r="F42" t="n">
-        <v>142.7072900626162</v>
+        <v>136.4040980931233</v>
       </c>
       <c r="G42" t="n">
-        <v>142.7072900626162</v>
+        <v>136.4040980931233</v>
       </c>
       <c r="H42" t="n">
-        <v>142.7072900626162</v>
+        <v>136.4040980931233</v>
       </c>
       <c r="I42" t="n">
-        <v>80.57856562752711</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K42" t="n">
-        <v>67.14814918912147</v>
+        <v>67.14814918912144</v>
       </c>
       <c r="L42" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M42" t="n">
-        <v>369.0979385312081</v>
+        <v>369.0979385312079</v>
       </c>
       <c r="N42" t="n">
-        <v>575.6281987437106</v>
+        <v>575.6281987437105</v>
       </c>
       <c r="O42" t="n">
-        <v>708.8159555163761</v>
+        <v>708.815955516376</v>
       </c>
       <c r="P42" t="n">
-        <v>793.6343706203808</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="Q42" t="n">
-        <v>787.5094133372637</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="R42" t="n">
-        <v>651.8246759427892</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="S42" t="n">
-        <v>651.8246759427892</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="T42" t="n">
-        <v>651.8246759427892</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="U42" t="n">
-        <v>412.2007827914091</v>
+        <v>785.8333014879756</v>
       </c>
       <c r="V42" t="n">
-        <v>169.1210646950432</v>
+        <v>785.7383780288915</v>
       </c>
       <c r="W42" t="n">
-        <v>142.7072900626162</v>
+        <v>516.3398087591828</v>
       </c>
       <c r="X42" t="n">
-        <v>142.7072900626162</v>
+        <v>296.8318143758792</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.7072900626162</v>
+        <v>296.8318143758792</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056725</v>
+        <v>101.5325204623145</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056725</v>
+        <v>101.5325204623145</v>
       </c>
       <c r="E43" t="n">
-        <v>126.0657498244643</v>
+        <v>101.5325204623145</v>
       </c>
       <c r="F43" t="n">
-        <v>126.0657498244643</v>
+        <v>101.5325204623145</v>
       </c>
       <c r="G43" t="n">
-        <v>126.0657498244643</v>
+        <v>101.5325204623145</v>
       </c>
       <c r="H43" t="n">
-        <v>126.0657498244643</v>
+        <v>101.5325204623145</v>
       </c>
       <c r="I43" t="n">
-        <v>126.0657498244643</v>
+        <v>101.5325204623145</v>
       </c>
       <c r="J43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="K43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="L43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="M43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="N43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="O43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="P43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.0657498244643</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U43" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866068</v>
+        <v>821.158653286608</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762331</v>
+        <v>710.4005212762343</v>
       </c>
       <c r="D44" t="n">
-        <v>612.2013162749015</v>
+        <v>612.2013162749024</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866074999</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114347</v>
+        <v>315.6677119114356</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H44" t="n">
-        <v>28.17573240056723</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I44" t="n">
-        <v>28.17573240056723</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J44" t="n">
-        <v>191.3026106395687</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K44" t="n">
         <v>424.2777650760514</v>
       </c>
       <c r="L44" t="n">
-        <v>685.3266013670502</v>
+        <v>472.8417217903935</v>
       </c>
       <c r="M44" t="n">
-        <v>768.2393201689506</v>
+        <v>555.7544405922939</v>
       </c>
       <c r="N44" t="n">
-        <v>1083.80061465065</v>
+        <v>871.3157350739931</v>
       </c>
       <c r="O44" t="n">
-        <v>1119.989115340329</v>
+        <v>1145.653632987673</v>
       </c>
       <c r="P44" t="n">
-        <v>1344.876988037012</v>
+        <v>1370.541505684355</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.876988037012</v>
+        <v>1370.541505684355</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.827318336288</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336288</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U44" t="n">
-        <v>1399.095053358691</v>
+        <v>1399.095053358692</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.63408966869</v>
+        <v>1219.634089668692</v>
       </c>
       <c r="X44" t="n">
-        <v>1099.202001180006</v>
+        <v>1099.202001180008</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208738</v>
+        <v>956.0397580208751</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>541.8658876833586</v>
+        <v>188.9558486395355</v>
       </c>
       <c r="C45" t="n">
-        <v>541.8658876833586</v>
+        <v>188.9558486395355</v>
       </c>
       <c r="D45" t="n">
-        <v>381.0857714443903</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E45" t="n">
-        <v>207.5225675658048</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F45" t="n">
-        <v>207.5225675658048</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G45" t="n">
-        <v>207.5225675658048</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H45" t="n">
-        <v>80.5785656275271</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.5785656275271</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J45" t="n">
-        <v>28.17573240056723</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912145</v>
+        <v>67.14814918912148</v>
       </c>
       <c r="L45" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908916</v>
       </c>
       <c r="M45" t="n">
         <v>369.0979385312081</v>
       </c>
       <c r="N45" t="n">
-        <v>575.6281987437106</v>
+        <v>575.6281987437108</v>
       </c>
       <c r="O45" t="n">
-        <v>708.8159555163761</v>
+        <v>708.8159555163763</v>
       </c>
       <c r="P45" t="n">
-        <v>793.6343706203808</v>
+        <v>793.634370620381</v>
       </c>
       <c r="Q45" t="n">
-        <v>793.6343706203808</v>
+        <v>787.509413337264</v>
       </c>
       <c r="R45" t="n">
-        <v>746.9104387018048</v>
+        <v>787.509413337264</v>
       </c>
       <c r="S45" t="n">
-        <v>746.9104387018048</v>
+        <v>787.509413337264</v>
       </c>
       <c r="T45" t="n">
-        <v>746.9104387018048</v>
+        <v>787.509413337264</v>
       </c>
       <c r="U45" t="n">
-        <v>746.9104387018048</v>
+        <v>787.509413337264</v>
       </c>
       <c r="V45" t="n">
-        <v>746.8155152427206</v>
+        <v>683.9951109739166</v>
       </c>
       <c r="W45" t="n">
-        <v>720.4017406102937</v>
+        <v>414.5965417042079</v>
       </c>
       <c r="X45" t="n">
-        <v>720.4017406102937</v>
+        <v>414.5965417042079</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.4017406102937</v>
+        <v>188.9558486395355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.17573240056723</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="C46" t="n">
-        <v>101.5325204623145</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="D46" t="n">
-        <v>101.5325204623145</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="E46" t="n">
-        <v>109.8164644608447</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="F46" t="n">
-        <v>109.8164644608447</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="G46" t="n">
-        <v>109.8164644608447</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="H46" t="n">
-        <v>109.8164644608447</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="I46" t="n">
-        <v>109.8164644608447</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="J46" t="n">
-        <v>109.8164644608447</v>
+        <v>90.48437816624866</v>
       </c>
       <c r="K46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="L46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="M46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="N46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="O46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="P46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S46" t="n">
-        <v>114.9734996970561</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U46" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W46" t="n">
-        <v>28.17573240056723</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X46" t="n">
-        <v>28.17573240056723</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.17573240056723</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
   </sheetData>
@@ -8772,13 +8772,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125985</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M12" t="n">
-        <v>185.5067434797564</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N12" t="n">
-        <v>200.937340602567</v>
+        <v>170.8384307724745</v>
       </c>
       <c r="O12" t="n">
         <v>120.6896952421636</v>
@@ -9009,16 +9009,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>219.3557975125985</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M15" t="n">
-        <v>185.5067434797564</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N15" t="n">
         <v>101.9974341175493</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271813</v>
+        <v>189.5306918970888</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L18" t="n">
-        <v>219.3557975125985</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M18" t="n">
-        <v>172.2420037664606</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N18" t="n">
-        <v>200.937340602567</v>
+        <v>111.2646018516528</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271813</v>
+        <v>219.6296017271815</v>
       </c>
       <c r="P18" t="n">
-        <v>120.6887073069575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>120.4158910275809</v>
+        <v>189.256887682506</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098494</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N21" t="n">
-        <v>170.8384307724741</v>
+        <v>101.9974341175493</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271813</v>
+        <v>219.6296017271815</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L24" t="n">
-        <v>219.3557975125985</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M24" t="n">
-        <v>185.5067434797564</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N24" t="n">
-        <v>200.937340602567</v>
+        <v>196.9397686233746</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6896952421636</v>
+        <v>219.6296017271815</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.79147670753372</v>
+        <v>173.7313831925514</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958969</v>
+        <v>50.90973371087898</v>
       </c>
       <c r="D11" t="n">
         <v>137.4163024569453</v>
       </c>
       <c r="E11" t="n">
-        <v>72.18314839133654</v>
+        <v>72.18314839133632</v>
       </c>
       <c r="F11" t="n">
         <v>202.8433924547315</v>
       </c>
       <c r="G11" t="n">
-        <v>119.5306118077612</v>
+        <v>171.5233381664022</v>
       </c>
       <c r="H11" t="n">
         <v>146.5447204342349</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312412</v>
+        <v>26.89230219312413</v>
       </c>
       <c r="T11" t="n">
         <v>22.05838072575468</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860079</v>
+        <v>49.7937405086008</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5239264238701</v>
+        <v>21.58401993885218</v>
       </c>
       <c r="W11" t="n">
         <v>137.540606640485</v>
       </c>
       <c r="X11" t="n">
-        <v>112.4796769830476</v>
+        <v>159.4268571094242</v>
       </c>
       <c r="Y11" t="n">
         <v>181.929710233168</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925513</v>
+        <v>173.7313831925514</v>
       </c>
       <c r="C14" t="n">
-        <v>50.90973371087915</v>
+        <v>50.90973371087898</v>
       </c>
       <c r="D14" t="n">
         <v>137.4163024569453</v>
@@ -23504,13 +23504,13 @@
         <v>171.1230548763542</v>
       </c>
       <c r="F14" t="n">
-        <v>155.8962123283549</v>
+        <v>103.9034859697136</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4705182927788</v>
+        <v>198.4156403595263</v>
       </c>
       <c r="H14" t="n">
-        <v>146.5447204342348</v>
+        <v>47.604813949217</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312408</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.0583807257546</v>
+        <v>22.05838072575468</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860073</v>
+        <v>49.79374050860079</v>
       </c>
       <c r="V14" t="n">
-        <v>120.52392642387</v>
+        <v>120.5239264238701</v>
       </c>
       <c r="W14" t="n">
-        <v>38.60070015546722</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X14" t="n">
-        <v>60.48695062440646</v>
+        <v>159.4268571094242</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.9297102331679</v>
+        <v>181.929710233168</v>
       </c>
     </row>
     <row r="15">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>330724.4981911724</v>
       </c>
       <c r="C2" t="n">
+        <v>330724.4981911723</v>
+      </c>
+      <c r="D2" t="n">
         <v>330724.4981911724</v>
-      </c>
-      <c r="D2" t="n">
-        <v>330724.4981911723</v>
       </c>
       <c r="E2" t="n">
         <v>284996.2833826796</v>
@@ -26326,7 +26326,7 @@
         <v>284996.2833826796</v>
       </c>
       <c r="G2" t="n">
-        <v>331394.4558219508</v>
+        <v>331394.4558219509</v>
       </c>
       <c r="H2" t="n">
         <v>331394.4558219509</v>
@@ -26341,19 +26341,19 @@
         <v>331394.455821951</v>
       </c>
       <c r="L2" t="n">
-        <v>331394.4558219508</v>
+        <v>331394.4558219511</v>
       </c>
       <c r="M2" t="n">
         <v>331394.4558219506</v>
       </c>
       <c r="N2" t="n">
-        <v>331394.4558219506</v>
+        <v>331394.4558219507</v>
       </c>
       <c r="O2" t="n">
+        <v>331394.4558219509</v>
+      </c>
+      <c r="P2" t="n">
         <v>331394.4558219507</v>
-      </c>
-      <c r="P2" t="n">
-        <v>331394.4558219506</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>273465.0445868052</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>103592.8157439611</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103592.8157439611</v>
+        <v>103592.815743961</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623639</v>
+        <v>22155.38587623641</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252968</v>
+        <v>66695.75573252974</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>467253.6573030353</v>
       </c>
       <c r="E4" t="n">
-        <v>361182.2424006842</v>
+        <v>361182.2424006843</v>
       </c>
       <c r="F4" t="n">
         <v>361182.2424006843</v>
@@ -26442,7 +26442,7 @@
         <v>430647.4817506726</v>
       </c>
       <c r="K4" t="n">
-        <v>430647.4817506725</v>
+        <v>430647.4817506726</v>
       </c>
       <c r="L4" t="n">
         <v>430647.4817506726</v>
@@ -26451,10 +26451,10 @@
         <v>430205.641534786</v>
       </c>
       <c r="N4" t="n">
-        <v>430205.6415347859</v>
+        <v>430205.641534786</v>
       </c>
       <c r="O4" t="n">
-        <v>430205.6415347859</v>
+        <v>430205.641534786</v>
       </c>
       <c r="P4" t="n">
         <v>430205.6415347859</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439977</v>
+        <v>25128.77385439978</v>
       </c>
       <c r="F5" t="n">
-        <v>25128.77385439977</v>
+        <v>25128.77385439978</v>
       </c>
       <c r="G5" t="n">
-        <v>36014.9543878736</v>
+        <v>36014.95438787361</v>
       </c>
       <c r="H5" t="n">
-        <v>36014.9543878736</v>
+        <v>36014.95438787361</v>
       </c>
       <c r="I5" t="n">
-        <v>36014.9543878736</v>
+        <v>36014.95438787361</v>
       </c>
       <c r="J5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.6013154428</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.6013154428</v>
       </c>
       <c r="L5" t="n">
         <v>47593.60131544279</v>
@@ -26506,10 +26506,10 @@
         <v>43906.28142019036</v>
       </c>
       <c r="O5" t="n">
-        <v>43906.28142019035</v>
+        <v>43906.28142019036</v>
       </c>
       <c r="P5" t="n">
-        <v>43906.28142019035</v>
+        <v>43906.28142019036</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-170156.7591118629</v>
+        <v>-170161.225496068</v>
       </c>
       <c r="C6" t="n">
-        <v>-170156.7591118629</v>
+        <v>-170161.2254960682</v>
       </c>
       <c r="D6" t="n">
-        <v>-170156.7591118629</v>
+        <v>-170161.225496068</v>
       </c>
       <c r="E6" t="n">
-        <v>-374779.7774592095</v>
+        <v>-375089.0986088048</v>
       </c>
       <c r="F6" t="n">
-        <v>-101314.7328724045</v>
+        <v>-101624.0540219996</v>
       </c>
       <c r="G6" t="n">
-        <v>-239914.1232237846</v>
+        <v>-239914.1232237845</v>
       </c>
       <c r="H6" t="n">
         <v>-136321.3074798234</v>
@@ -26546,10 +26546,10 @@
         <v>-305692.5245793696</v>
       </c>
       <c r="K6" t="n">
-        <v>-146846.6272441643</v>
+        <v>-146846.6272441644</v>
       </c>
       <c r="L6" t="n">
-        <v>-250439.4429881256</v>
+        <v>-250439.4429881252</v>
       </c>
       <c r="M6" t="n">
         <v>-164872.8530092621</v>
@@ -26558,7 +26558,7 @@
         <v>-142717.4671330256</v>
       </c>
       <c r="O6" t="n">
-        <v>-209413.2228655552</v>
+        <v>-209413.2228655551</v>
       </c>
       <c r="P6" t="n">
         <v>-142717.4671330256</v>
@@ -26695,31 +26695,31 @@
         <v>200.3558571852819</v>
       </c>
       <c r="F2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G2" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="J2" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="K2" t="n">
+        <v>212.8607143456135</v>
+      </c>
+      <c r="L2" t="n">
         <v>212.8607143456134</v>
       </c>
-      <c r="L2" t="n">
-        <v>212.8607143456135</v>
-      </c>
       <c r="M2" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N2" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O2" t="n">
         <v>240.5549466909089</v>
@@ -26765,16 +26765,16 @@
         <v>104.1060083670287</v>
       </c>
       <c r="L3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670286</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670286</v>
       </c>
       <c r="N3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670286</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670286</v>
       </c>
       <c r="P3" t="n">
         <v>104.1060083670287</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="F4" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="G4" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="H4" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921085</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921085</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921085</v>
       </c>
       <c r="M4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070907</v>
       </c>
       <c r="N4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070907</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070907</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1966550070904</v>
+        <v>352.1966550070907</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>200.3558571852819</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>129.4910196799513</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566214</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799512</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529549</v>
+        <v>27.69423234529552</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566211</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>200.3558571852819</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>129.4910196799513</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566214</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>200.3558571852819</v>
       </c>
       <c r="J11" t="n">
-        <v>121.049870224726</v>
+        <v>75.78032220706913</v>
       </c>
       <c r="K11" t="n">
-        <v>104.1664143511966</v>
+        <v>5.226507866178892</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.39547932052241</v>
+        <v>58.66502733817995</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43774142365245</v>
+        <v>187.3776479086704</v>
       </c>
       <c r="R11" t="n">
         <v>194.140471641135</v>
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>88.57824503934825</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>78.29863732549858</v>
+        <v>60.23240859156064</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>90.95389408871904</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>200.3558571852819</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>200.3558571852819</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28266,13 +28266,13 @@
         <v>165.7773474488177</v>
       </c>
       <c r="I13" t="n">
-        <v>200.3558571852819</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J13" t="n">
-        <v>200.3558571852819</v>
+        <v>154.7807725203224</v>
       </c>
       <c r="K13" t="n">
-        <v>91.94386186428011</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L13" t="n">
         <v>31.36504828657053</v>
@@ -28281,13 +28281,13 @@
         <v>24.38732889638564</v>
       </c>
       <c r="N13" t="n">
-        <v>15.71034539069792</v>
+        <v>114.6502518757158</v>
       </c>
       <c r="O13" t="n">
         <v>36.7308915636881</v>
       </c>
       <c r="P13" t="n">
-        <v>57.83856215319999</v>
+        <v>156.7784686382179</v>
       </c>
       <c r="Q13" t="n">
         <v>200.3558571852819</v>
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="C14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="E14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="H14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="I14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="J14" t="n">
-        <v>174.7202286920868</v>
+        <v>174.720228692087</v>
       </c>
       <c r="K14" t="n">
         <v>5.226507866178892</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.39547932052241</v>
+        <v>52.44964179403303</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.7072894413093</v>
+        <v>88.43774142365245</v>
       </c>
       <c r="R14" t="n">
-        <v>194.140471641135</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>49.7983857788696</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H15" t="n">
         <v>125.6745619188949</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S15" t="n">
-        <v>188.8864420163761</v>
+        <v>92.53363828901294</v>
       </c>
       <c r="T15" t="n">
-        <v>116.0055744815707</v>
+        <v>181.5502888846349</v>
       </c>
       <c r="U15" t="n">
-        <v>200.355857185282</v>
+        <v>138.2877477348484</v>
       </c>
       <c r="V15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200.355857185282</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28497,61 +28497,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>200.355857185282</v>
+        <v>183.7793019772557</v>
       </c>
       <c r="H16" t="n">
         <v>165.7773474488177</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6938248359117</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8654670400798</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="K16" t="n">
         <v>66.41515229588836</v>
       </c>
       <c r="L16" t="n">
-        <v>34.61997956324035</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M16" t="n">
-        <v>24.38732889638564</v>
+        <v>123.3272353814036</v>
       </c>
       <c r="N16" t="n">
-        <v>15.71034539069792</v>
+        <v>114.6502518757158</v>
       </c>
       <c r="O16" t="n">
-        <v>135.6707980487058</v>
+        <v>36.7308915636881</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7784686382176</v>
+        <v>57.83856215319999</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.355857185282</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="C17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="D17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="E17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="F17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="I17" t="n">
         <v>240.5549466909089</v>
@@ -28588,10 +28588,10 @@
         <v>75.78032220706913</v>
       </c>
       <c r="K17" t="n">
-        <v>99.55055761549448</v>
+        <v>5.226507866178892</v>
       </c>
       <c r="L17" t="n">
-        <v>49.88540475335894</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>194.140471641135</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2481593784061</v>
+        <v>326.188065863424</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4142379110366</v>
+        <v>258.7166926726129</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495976938827</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="W17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="X17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
     </row>
     <row r="18">
@@ -28640,31 +28640,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.81058791264806</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>60.23240859156087</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>71.67716948792484</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7382922638873</v>
       </c>
       <c r="H18" t="n">
-        <v>125.6745619188949</v>
+        <v>26.73465543387699</v>
       </c>
       <c r="I18" t="n">
         <v>107.1460820356304</v>
       </c>
       <c r="J18" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4735447740308</v>
+        <v>92.53363828901294</v>
       </c>
       <c r="T18" t="n">
         <v>214.9454809665884</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>167.7646770919939</v>
+        <v>167.7646770919937</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>194.180529106998</v>
       </c>
     </row>
     <row r="19">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="I20" t="n">
         <v>240.5549466909089</v>
@@ -28852,22 +28852,22 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T20" t="n">
-        <v>286.9264132423606</v>
+        <v>286.9264132423615</v>
       </c>
       <c r="U20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
     </row>
     <row r="21">
@@ -28883,25 +28883,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>60.23240859156064</v>
       </c>
       <c r="E21" t="n">
-        <v>90.74500991808196</v>
+        <v>142.623814812772</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>59.88353263491044</v>
       </c>
       <c r="G21" t="n">
         <v>148.7382922638873</v>
       </c>
       <c r="H21" t="n">
-        <v>26.73465543387722</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
         <v>107.1460820356304</v>
       </c>
       <c r="J21" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551186</v>
       </c>
       <c r="S21" t="n">
-        <v>92.53363828901318</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T21" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U21" t="n">
-        <v>138.2877477348486</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="I23" t="n">
-        <v>285.8244947085658</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J23" t="n">
         <v>75.78032220706913</v>
@@ -29083,28 +29083,28 @@
         <v>88.43774142365245</v>
       </c>
       <c r="R23" t="n">
-        <v>293.0803781261527</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S23" t="n">
         <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4142379110366</v>
+        <v>286.9264132423613</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1495976938827</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29114,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>77.81058791264783</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>88.57824503934802</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>60.23240859156064</v>
       </c>
       <c r="E24" t="n">
-        <v>90.74500991808195</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>49.79838577886962</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H24" t="n">
         <v>125.6745619188949</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206175550612734</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J24" t="n">
-        <v>51.87880489469026</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,10 +29159,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.063707710285829</v>
       </c>
       <c r="R24" t="n">
-        <v>35.38798353551209</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S24" t="n">
         <v>191.4735447740308</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>182.0454497021572</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29302,7 +29302,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="M26" t="n">
         <v>212.8607143456135</v>
@@ -29314,7 +29314,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456126</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q26" t="n">
         <v>212.8607143456135</v>
@@ -29354,13 +29354,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29372,10 +29372,10 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.87880489469026</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -29405,13 +29405,13 @@
         <v>191.4735447740308</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>118.8866802874768</v>
+      </c>
+      <c r="V27" t="n">
         <v>212.8607143456135</v>
-      </c>
-      <c r="U27" t="n">
-        <v>212.8607143456135</v>
-      </c>
-      <c r="V27" t="n">
-        <v>202.4688805539103</v>
       </c>
       <c r="W27" t="n">
         <v>212.8607143456135</v>
@@ -29454,10 +29454,10 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8654670400798</v>
+        <v>149.9574149813238</v>
       </c>
       <c r="K28" t="n">
-        <v>212.8607143456135</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L28" t="n">
         <v>31.36504828657053</v>
@@ -29466,10 +29466,10 @@
         <v>24.38732889638564</v>
       </c>
       <c r="N28" t="n">
-        <v>15.71034539069792</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O28" t="n">
-        <v>127.1963447106627</v>
+        <v>36.7308915636881</v>
       </c>
       <c r="P28" t="n">
         <v>57.83856215319999</v>
@@ -29478,7 +29478,7 @@
         <v>126.7738576957196</v>
       </c>
       <c r="R28" t="n">
-        <v>203.1920160450731</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S28" t="n">
         <v>212.8607143456135</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29606,7 +29606,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
         <v>107.1460820356304</v>
@@ -29636,28 +29636,28 @@
         <v>6.063707710285829</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>114.968771452511</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.8581878664103</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="31">
@@ -29673,22 +29673,22 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>156.5913210271154</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>149.6311720893445</v>
       </c>
       <c r="G31" t="n">
-        <v>212.8607143456134</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H31" t="n">
-        <v>212.8607143456134</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8607143456134</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J31" t="n">
         <v>119.8654670400798</v>
@@ -29709,34 +29709,34 @@
         <v>36.7308915636881</v>
       </c>
       <c r="P31" t="n">
-        <v>57.83856215319999</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8607143456134</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R31" t="n">
         <v>203.1920160450731</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8607143456127</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456149</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="33">
@@ -29831,25 +29831,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H33" t="n">
         <v>125.6745619188949</v>
       </c>
       <c r="I33" t="n">
-        <v>5.828162825998959</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J33" t="n">
-        <v>51.87880489469026</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.063707710285829</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R33" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4735447740308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8607143456135</v>
+        <v>67.93954272298913</v>
       </c>
     </row>
     <row r="34">
@@ -29910,19 +29910,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6954829817093</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8607143456135</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I34" t="n">
         <v>164.6938248359117</v>
@@ -29931,49 +29931,49 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K34" t="n">
-        <v>66.41515229588836</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L34" t="n">
-        <v>211.5239982859342</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M34" t="n">
-        <v>24.38732889638564</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N34" t="n">
-        <v>15.71034539069792</v>
+        <v>66.84423300142495</v>
       </c>
       <c r="O34" t="n">
-        <v>36.7308915636881</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P34" t="n">
-        <v>57.83856215319999</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7738576957196</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R34" t="n">
-        <v>212.8607143456135</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456134</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="C35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="D35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="G35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="H35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="I35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J35" t="n">
-        <v>240.554946690909</v>
+        <v>182.7024169923697</v>
       </c>
       <c r="K35" t="n">
-        <v>240.554946690909</v>
+        <v>5.226507866178949</v>
       </c>
       <c r="L35" t="n">
-        <v>187.9289248585475</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="M35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="P35" t="n">
-        <v>13.39547932052241</v>
+        <v>13.39547932052248</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.43774142365245</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="T35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="36">
@@ -30065,13 +30065,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J36" t="n">
-        <v>51.87880489469026</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,31 +30107,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.063707710285829</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3278900205298</v>
+        <v>49.74142172503889</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>68.48248321064241</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H37" t="n">
-        <v>240.554946690909</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I37" t="n">
         <v>164.6938248359117</v>
@@ -30168,49 +30168,49 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K37" t="n">
-        <v>66.41515229588836</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L37" t="n">
-        <v>31.36504828657053</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M37" t="n">
-        <v>24.38732889638564</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N37" t="n">
-        <v>15.71034539069792</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O37" t="n">
-        <v>36.7308915636881</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P37" t="n">
-        <v>57.83856215319999</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.7738576957196</v>
+        <v>135.0362743111729</v>
       </c>
       <c r="R37" t="n">
-        <v>203.1920160450731</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S37" t="n">
-        <v>240.554946690909</v>
+        <v>235.3458201896853</v>
       </c>
       <c r="T37" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U37" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V37" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W37" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X37" t="n">
-        <v>229.6072420856233</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="C38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="D38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="G38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="H38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="I38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="K38" t="n">
-        <v>240.554946690909</v>
+        <v>49.20719891181482</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="M38" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>206.0696336384199</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="P38" t="n">
-        <v>13.39547932052241</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.43774142365245</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="R38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4142379110366</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="39">
@@ -30302,28 +30302,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7382922638873</v>
+        <v>124.3140920126453</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4735447740308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T39" t="n">
-        <v>202.2212950143453</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30378,16 +30378,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>191.1936673667271</v>
+        <v>183.2286268871866</v>
       </c>
       <c r="C40" t="n">
-        <v>240.554946690909</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30405,25 +30405,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K40" t="n">
-        <v>66.41515229588836</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L40" t="n">
-        <v>31.36504828657053</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M40" t="n">
-        <v>24.38732889638564</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N40" t="n">
-        <v>15.71034539069792</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O40" t="n">
-        <v>36.7308915636881</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P40" t="n">
-        <v>57.83856215319999</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.7738576957196</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R40" t="n">
         <v>203.1920160450731</v>
@@ -30432,16 +30432,16 @@
         <v>235.3458201896853</v>
       </c>
       <c r="T40" t="n">
-        <v>240.554946690909</v>
+        <v>223.7389474107024</v>
       </c>
       <c r="U40" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V40" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W40" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30490,28 +30490,28 @@
         <v>240.5549466909089</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>7.183932537936229</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="P41" t="n">
-        <v>80.65469500418881</v>
-      </c>
       <c r="Q41" t="n">
+        <v>88.43774142365251</v>
+      </c>
+      <c r="R41" t="n">
+        <v>194.140471641135</v>
+      </c>
+      <c r="S41" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="S41" t="n">
-        <v>227.2481593784061</v>
-      </c>
-      <c r="T41" t="n">
-        <v>222.4142379110366</v>
       </c>
       <c r="U41" t="n">
         <v>240.5549466909089</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7382922638873</v>
@@ -30557,10 +30557,10 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I42" t="n">
-        <v>45.63864484489217</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>229.5045957787854</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30618,13 +30618,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5549466909089</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30639,31 +30639,31 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8654670400798</v>
+        <v>150.2582130220457</v>
       </c>
       <c r="K43" t="n">
-        <v>66.41515229588836</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L43" t="n">
-        <v>31.36504828657053</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M43" t="n">
-        <v>24.38732889638564</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N43" t="n">
-        <v>15.71034539069792</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O43" t="n">
-        <v>36.7308915636881</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P43" t="n">
-        <v>57.83856215319999</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7738576957196</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R43" t="n">
-        <v>208.8037222672915</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S43" t="n">
         <v>235.3458201896853</v>
@@ -30724,7 +30724,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="L44" t="n">
-        <v>214.6311914915724</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="P44" t="n">
         <v>240.5549466909089</v>
@@ -30742,13 +30742,13 @@
         <v>88.43774142365245</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5549466909089</v>
+        <v>232.7719002714454</v>
       </c>
       <c r="S44" t="n">
         <v>227.2481593784061</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U44" t="n">
         <v>240.5549466909089</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30791,13 +30791,13 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I45" t="n">
         <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.87880489469025</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285829</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>88.07119742113953</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
         <v>191.4735447740308</v>
@@ -30833,16 +30833,16 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5549466909089</v>
+        <v>138.1697615756882</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="C46" t="n">
-        <v>240.5549466909089</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>150.0437614127606</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,19 +30879,19 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588836</v>
+        <v>107.96763797085</v>
       </c>
       <c r="L46" t="n">
         <v>31.36504828657053</v>
       </c>
       <c r="M46" t="n">
-        <v>24.38732889638564</v>
+        <v>24.38732889638563</v>
       </c>
       <c r="N46" t="n">
         <v>15.71034539069792</v>
       </c>
       <c r="O46" t="n">
-        <v>36.7308915636881</v>
+        <v>36.73089156368809</v>
       </c>
       <c r="P46" t="n">
         <v>57.83856215319999</v>
@@ -30903,10 +30903,10 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S46" t="n">
-        <v>240.5549466909089</v>
+        <v>235.3458201896853</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5549466909089</v>
+        <v>223.7389474107024</v>
       </c>
       <c r="U46" t="n">
         <v>240.5549466909089</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4185166165508689</v>
+        <v>0.4185166165508685</v>
       </c>
       <c r="H32" t="n">
-        <v>4.286133299251587</v>
+        <v>4.286133299251583</v>
       </c>
       <c r="I32" t="n">
-        <v>16.13486185957739</v>
+        <v>16.13486185957737</v>
       </c>
       <c r="J32" t="n">
-        <v>35.52107468398435</v>
+        <v>35.5210746839843</v>
       </c>
       <c r="K32" t="n">
-        <v>53.23688306258263</v>
+        <v>53.23688306258258</v>
       </c>
       <c r="L32" t="n">
-        <v>66.0450609663513</v>
+        <v>66.04506096635123</v>
       </c>
       <c r="M32" t="n">
-        <v>73.48785584593782</v>
+        <v>73.48785584593773</v>
       </c>
       <c r="N32" t="n">
-        <v>74.67696618271297</v>
+        <v>74.6769661827129</v>
       </c>
       <c r="O32" t="n">
-        <v>70.51534157688528</v>
+        <v>70.51534157688519</v>
       </c>
       <c r="P32" t="n">
-        <v>60.18321260578568</v>
+        <v>60.18321260578562</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.19508627555768</v>
+        <v>45.19508627555763</v>
       </c>
       <c r="R32" t="n">
-        <v>26.28964441441354</v>
+        <v>26.28964441441351</v>
       </c>
       <c r="S32" t="n">
-        <v>9.536947399652934</v>
+        <v>9.536947399652924</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83205648895143</v>
+        <v>1.832056488951428</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0334813293240695</v>
+        <v>0.03348132932406947</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2239261312045523</v>
+        <v>0.2239261312045521</v>
       </c>
       <c r="H33" t="n">
-        <v>2.162655004001861</v>
+        <v>2.162655004001859</v>
       </c>
       <c r="I33" t="n">
-        <v>7.709737412086562</v>
+        <v>7.709737412086554</v>
       </c>
       <c r="J33" t="n">
-        <v>21.15610873805817</v>
+        <v>21.15610873805815</v>
       </c>
       <c r="K33" t="n">
-        <v>36.15915952876318</v>
+        <v>36.15915952876314</v>
       </c>
       <c r="L33" t="n">
-        <v>48.62045230386563</v>
+        <v>48.62045230386558</v>
       </c>
       <c r="M33" t="n">
-        <v>56.73777456003064</v>
+        <v>56.73777456003059</v>
       </c>
       <c r="N33" t="n">
-        <v>58.23945462411733</v>
+        <v>58.23945462411726</v>
       </c>
       <c r="O33" t="n">
-        <v>53.27772298005856</v>
+        <v>53.2777229800585</v>
       </c>
       <c r="P33" t="n">
-        <v>42.76006973852544</v>
+        <v>42.7600697385254</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.58397422183023</v>
+        <v>28.5839742218302</v>
       </c>
       <c r="R33" t="n">
-        <v>13.90306277777037</v>
+        <v>13.90306277777036</v>
       </c>
       <c r="S33" t="n">
-        <v>4.159329673909117</v>
+        <v>4.159329673909112</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9025794498990506</v>
+        <v>0.9025794498990496</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01473198231608898</v>
+        <v>0.01473198231608896</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1877321462356255</v>
+        <v>0.1877321462356253</v>
       </c>
       <c r="H34" t="n">
-        <v>1.669109445622199</v>
+        <v>1.669109445622197</v>
       </c>
       <c r="I34" t="n">
-        <v>5.645617634067722</v>
+        <v>5.645617634067716</v>
       </c>
       <c r="J34" t="n">
-        <v>13.27266273885873</v>
+        <v>13.27266273885871</v>
       </c>
       <c r="K34" t="n">
-        <v>21.81106208082995</v>
+        <v>21.81106208082992</v>
       </c>
       <c r="L34" t="n">
-        <v>27.91065017761292</v>
+        <v>27.91065017761288</v>
       </c>
       <c r="M34" t="n">
-        <v>29.42786725037173</v>
+        <v>29.4278672503717</v>
       </c>
       <c r="N34" t="n">
-        <v>28.72813834167534</v>
+        <v>28.7281383416753</v>
       </c>
       <c r="O34" t="n">
-        <v>26.53508554246825</v>
+        <v>26.53508554246822</v>
       </c>
       <c r="P34" t="n">
-        <v>22.70534975926147</v>
+        <v>22.70534975926144</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.72000726342134</v>
+        <v>15.72000726342132</v>
       </c>
       <c r="R34" t="n">
-        <v>8.44111995710367</v>
+        <v>8.441119957103661</v>
       </c>
       <c r="S34" t="n">
-        <v>3.271659312124491</v>
+        <v>3.271659312124488</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8021282611885816</v>
+        <v>0.8021282611885808</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01023993524921595</v>
+        <v>0.01023993524921594</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4185166165508689</v>
+        <v>0.4185166165508685</v>
       </c>
       <c r="H35" t="n">
-        <v>4.286133299251587</v>
+        <v>4.286133299251583</v>
       </c>
       <c r="I35" t="n">
-        <v>16.13486185957739</v>
+        <v>16.13486185957737</v>
       </c>
       <c r="J35" t="n">
-        <v>35.52107468398435</v>
+        <v>35.5210746839843</v>
       </c>
       <c r="K35" t="n">
-        <v>53.23688306258263</v>
+        <v>53.23688306258258</v>
       </c>
       <c r="L35" t="n">
-        <v>66.0450609663513</v>
+        <v>66.04506096635123</v>
       </c>
       <c r="M35" t="n">
-        <v>73.48785584593782</v>
+        <v>73.48785584593773</v>
       </c>
       <c r="N35" t="n">
-        <v>74.67696618271297</v>
+        <v>74.6769661827129</v>
       </c>
       <c r="O35" t="n">
-        <v>70.51534157688528</v>
+        <v>70.51534157688519</v>
       </c>
       <c r="P35" t="n">
-        <v>60.18321260578568</v>
+        <v>60.18321260578562</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.19508627555768</v>
+        <v>45.19508627555763</v>
       </c>
       <c r="R35" t="n">
-        <v>26.28964441441354</v>
+        <v>26.28964441441351</v>
       </c>
       <c r="S35" t="n">
-        <v>9.536947399652934</v>
+        <v>9.536947399652924</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83205648895143</v>
+        <v>1.832056488951428</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0334813293240695</v>
+        <v>0.03348132932406947</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2239261312045523</v>
+        <v>0.2239261312045521</v>
       </c>
       <c r="H36" t="n">
-        <v>2.162655004001861</v>
+        <v>2.162655004001859</v>
       </c>
       <c r="I36" t="n">
-        <v>7.709737412086562</v>
+        <v>7.709737412086554</v>
       </c>
       <c r="J36" t="n">
-        <v>21.15610873805817</v>
+        <v>21.15610873805815</v>
       </c>
       <c r="K36" t="n">
-        <v>36.15915952876318</v>
+        <v>36.15915952876314</v>
       </c>
       <c r="L36" t="n">
-        <v>48.62045230386563</v>
+        <v>48.62045230386558</v>
       </c>
       <c r="M36" t="n">
-        <v>56.73777456003064</v>
+        <v>56.73777456003059</v>
       </c>
       <c r="N36" t="n">
-        <v>58.23945462411733</v>
+        <v>58.23945462411726</v>
       </c>
       <c r="O36" t="n">
-        <v>53.27772298005856</v>
+        <v>53.2777229800585</v>
       </c>
       <c r="P36" t="n">
-        <v>42.76006973852544</v>
+        <v>42.7600697385254</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.58397422183023</v>
+        <v>28.5839742218302</v>
       </c>
       <c r="R36" t="n">
-        <v>13.90306277777037</v>
+        <v>13.90306277777036</v>
       </c>
       <c r="S36" t="n">
-        <v>4.159329673909117</v>
+        <v>4.159329673909112</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9025794498990506</v>
+        <v>0.9025794498990496</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01473198231608898</v>
+        <v>0.01473198231608896</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1877321462356255</v>
+        <v>0.1877321462356253</v>
       </c>
       <c r="H37" t="n">
-        <v>1.669109445622199</v>
+        <v>1.669109445622197</v>
       </c>
       <c r="I37" t="n">
-        <v>5.645617634067722</v>
+        <v>5.645617634067716</v>
       </c>
       <c r="J37" t="n">
-        <v>13.27266273885873</v>
+        <v>13.27266273885871</v>
       </c>
       <c r="K37" t="n">
-        <v>21.81106208082995</v>
+        <v>21.81106208082992</v>
       </c>
       <c r="L37" t="n">
-        <v>27.91065017761292</v>
+        <v>27.91065017761288</v>
       </c>
       <c r="M37" t="n">
-        <v>29.42786725037173</v>
+        <v>29.4278672503717</v>
       </c>
       <c r="N37" t="n">
-        <v>28.72813834167534</v>
+        <v>28.7281383416753</v>
       </c>
       <c r="O37" t="n">
-        <v>26.53508554246825</v>
+        <v>26.53508554246822</v>
       </c>
       <c r="P37" t="n">
-        <v>22.70534975926147</v>
+        <v>22.70534975926144</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.72000726342134</v>
+        <v>15.72000726342132</v>
       </c>
       <c r="R37" t="n">
-        <v>8.44111995710367</v>
+        <v>8.441119957103661</v>
       </c>
       <c r="S37" t="n">
-        <v>3.271659312124491</v>
+        <v>3.271659312124488</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8021282611885816</v>
+        <v>0.8021282611885808</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01023993524921595</v>
+        <v>0.01023993524921594</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4185166165508689</v>
+        <v>0.4185166165508685</v>
       </c>
       <c r="H38" t="n">
-        <v>4.286133299251587</v>
+        <v>4.286133299251583</v>
       </c>
       <c r="I38" t="n">
-        <v>16.13486185957739</v>
+        <v>16.13486185957737</v>
       </c>
       <c r="J38" t="n">
-        <v>35.52107468398435</v>
+        <v>35.5210746839843</v>
       </c>
       <c r="K38" t="n">
-        <v>53.23688306258263</v>
+        <v>53.23688306258258</v>
       </c>
       <c r="L38" t="n">
-        <v>66.0450609663513</v>
+        <v>66.04506096635123</v>
       </c>
       <c r="M38" t="n">
-        <v>73.48785584593782</v>
+        <v>73.48785584593773</v>
       </c>
       <c r="N38" t="n">
-        <v>74.67696618271297</v>
+        <v>74.6769661827129</v>
       </c>
       <c r="O38" t="n">
-        <v>70.51534157688528</v>
+        <v>70.51534157688519</v>
       </c>
       <c r="P38" t="n">
-        <v>60.18321260578568</v>
+        <v>60.18321260578562</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.19508627555768</v>
+        <v>45.19508627555763</v>
       </c>
       <c r="R38" t="n">
-        <v>26.28964441441354</v>
+        <v>26.28964441441351</v>
       </c>
       <c r="S38" t="n">
-        <v>9.536947399652934</v>
+        <v>9.536947399652924</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83205648895143</v>
+        <v>1.832056488951428</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0334813293240695</v>
+        <v>0.03348132932406947</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2239261312045523</v>
+        <v>0.2239261312045521</v>
       </c>
       <c r="H39" t="n">
-        <v>2.162655004001861</v>
+        <v>2.162655004001859</v>
       </c>
       <c r="I39" t="n">
-        <v>7.709737412086562</v>
+        <v>7.709737412086554</v>
       </c>
       <c r="J39" t="n">
-        <v>21.15610873805817</v>
+        <v>21.15610873805815</v>
       </c>
       <c r="K39" t="n">
-        <v>36.15915952876318</v>
+        <v>36.15915952876314</v>
       </c>
       <c r="L39" t="n">
-        <v>48.62045230386563</v>
+        <v>48.62045230386558</v>
       </c>
       <c r="M39" t="n">
-        <v>56.73777456003064</v>
+        <v>56.73777456003059</v>
       </c>
       <c r="N39" t="n">
-        <v>58.23945462411733</v>
+        <v>58.23945462411726</v>
       </c>
       <c r="O39" t="n">
-        <v>53.27772298005856</v>
+        <v>53.2777229800585</v>
       </c>
       <c r="P39" t="n">
-        <v>42.76006973852544</v>
+        <v>42.7600697385254</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.58397422183023</v>
+        <v>28.5839742218302</v>
       </c>
       <c r="R39" t="n">
-        <v>13.90306277777037</v>
+        <v>13.90306277777036</v>
       </c>
       <c r="S39" t="n">
-        <v>4.159329673909117</v>
+        <v>4.159329673909112</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9025794498990506</v>
+        <v>0.9025794498990496</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01473198231608898</v>
+        <v>0.01473198231608896</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1877321462356255</v>
+        <v>0.1877321462356253</v>
       </c>
       <c r="H40" t="n">
-        <v>1.669109445622199</v>
+        <v>1.669109445622197</v>
       </c>
       <c r="I40" t="n">
-        <v>5.645617634067722</v>
+        <v>5.645617634067716</v>
       </c>
       <c r="J40" t="n">
-        <v>13.27266273885873</v>
+        <v>13.27266273885871</v>
       </c>
       <c r="K40" t="n">
-        <v>21.81106208082995</v>
+        <v>21.81106208082992</v>
       </c>
       <c r="L40" t="n">
-        <v>27.91065017761292</v>
+        <v>27.91065017761288</v>
       </c>
       <c r="M40" t="n">
-        <v>29.42786725037173</v>
+        <v>29.4278672503717</v>
       </c>
       <c r="N40" t="n">
-        <v>28.72813834167534</v>
+        <v>28.7281383416753</v>
       </c>
       <c r="O40" t="n">
-        <v>26.53508554246825</v>
+        <v>26.53508554246822</v>
       </c>
       <c r="P40" t="n">
-        <v>22.70534975926147</v>
+        <v>22.70534975926144</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.72000726342134</v>
+        <v>15.72000726342132</v>
       </c>
       <c r="R40" t="n">
-        <v>8.44111995710367</v>
+        <v>8.441119957103661</v>
       </c>
       <c r="S40" t="n">
-        <v>3.271659312124491</v>
+        <v>3.271659312124488</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8021282611885816</v>
+        <v>0.8021282611885808</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01023993524921595</v>
+        <v>0.01023993524921594</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4185166165508689</v>
+        <v>0.4185166165508685</v>
       </c>
       <c r="H41" t="n">
-        <v>4.286133299251587</v>
+        <v>4.286133299251583</v>
       </c>
       <c r="I41" t="n">
-        <v>16.13486185957739</v>
+        <v>16.13486185957737</v>
       </c>
       <c r="J41" t="n">
-        <v>35.52107468398435</v>
+        <v>35.5210746839843</v>
       </c>
       <c r="K41" t="n">
-        <v>53.23688306258263</v>
+        <v>53.23688306258258</v>
       </c>
       <c r="L41" t="n">
-        <v>66.0450609663513</v>
+        <v>66.04506096635123</v>
       </c>
       <c r="M41" t="n">
-        <v>73.48785584593782</v>
+        <v>73.48785584593773</v>
       </c>
       <c r="N41" t="n">
-        <v>74.67696618271297</v>
+        <v>74.6769661827129</v>
       </c>
       <c r="O41" t="n">
-        <v>70.51534157688528</v>
+        <v>70.51534157688519</v>
       </c>
       <c r="P41" t="n">
-        <v>60.18321260578568</v>
+        <v>60.18321260578562</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.19508627555768</v>
+        <v>45.19508627555763</v>
       </c>
       <c r="R41" t="n">
-        <v>26.28964441441354</v>
+        <v>26.28964441441351</v>
       </c>
       <c r="S41" t="n">
-        <v>9.536947399652934</v>
+        <v>9.536947399652924</v>
       </c>
       <c r="T41" t="n">
-        <v>1.83205648895143</v>
+        <v>1.832056488951428</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0334813293240695</v>
+        <v>0.03348132932406947</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2239261312045523</v>
+        <v>0.2239261312045521</v>
       </c>
       <c r="H42" t="n">
-        <v>2.162655004001861</v>
+        <v>2.162655004001859</v>
       </c>
       <c r="I42" t="n">
-        <v>7.709737412086562</v>
+        <v>7.709737412086554</v>
       </c>
       <c r="J42" t="n">
-        <v>21.15610873805817</v>
+        <v>21.15610873805815</v>
       </c>
       <c r="K42" t="n">
-        <v>36.15915952876318</v>
+        <v>36.15915952876314</v>
       </c>
       <c r="L42" t="n">
-        <v>48.62045230386563</v>
+        <v>48.62045230386558</v>
       </c>
       <c r="M42" t="n">
-        <v>56.73777456003064</v>
+        <v>56.73777456003059</v>
       </c>
       <c r="N42" t="n">
-        <v>58.23945462411733</v>
+        <v>58.23945462411726</v>
       </c>
       <c r="O42" t="n">
-        <v>53.27772298005856</v>
+        <v>53.2777229800585</v>
       </c>
       <c r="P42" t="n">
-        <v>42.76006973852544</v>
+        <v>42.7600697385254</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.58397422183023</v>
+        <v>28.5839742218302</v>
       </c>
       <c r="R42" t="n">
-        <v>13.90306277777037</v>
+        <v>13.90306277777036</v>
       </c>
       <c r="S42" t="n">
-        <v>4.159329673909117</v>
+        <v>4.159329673909112</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9025794498990506</v>
+        <v>0.9025794498990496</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01473198231608898</v>
+        <v>0.01473198231608896</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1877321462356255</v>
+        <v>0.1877321462356253</v>
       </c>
       <c r="H43" t="n">
-        <v>1.669109445622199</v>
+        <v>1.669109445622197</v>
       </c>
       <c r="I43" t="n">
-        <v>5.645617634067722</v>
+        <v>5.645617634067716</v>
       </c>
       <c r="J43" t="n">
-        <v>13.27266273885873</v>
+        <v>13.27266273885871</v>
       </c>
       <c r="K43" t="n">
-        <v>21.81106208082995</v>
+        <v>21.81106208082992</v>
       </c>
       <c r="L43" t="n">
-        <v>27.91065017761292</v>
+        <v>27.91065017761288</v>
       </c>
       <c r="M43" t="n">
-        <v>29.42786725037173</v>
+        <v>29.4278672503717</v>
       </c>
       <c r="N43" t="n">
-        <v>28.72813834167534</v>
+        <v>28.7281383416753</v>
       </c>
       <c r="O43" t="n">
-        <v>26.53508554246825</v>
+        <v>26.53508554246822</v>
       </c>
       <c r="P43" t="n">
-        <v>22.70534975926147</v>
+        <v>22.70534975926144</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.72000726342134</v>
+        <v>15.72000726342132</v>
       </c>
       <c r="R43" t="n">
-        <v>8.44111995710367</v>
+        <v>8.441119957103661</v>
       </c>
       <c r="S43" t="n">
-        <v>3.271659312124491</v>
+        <v>3.271659312124488</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8021282611885816</v>
+        <v>0.8021282611885808</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01023993524921595</v>
+        <v>0.01023993524921594</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508689</v>
+        <v>0.418516616550869</v>
       </c>
       <c r="H44" t="n">
-        <v>4.286133299251587</v>
+        <v>4.286133299251588</v>
       </c>
       <c r="I44" t="n">
         <v>16.13486185957739</v>
@@ -34369,37 +34369,37 @@
         <v>35.52107468398435</v>
       </c>
       <c r="K44" t="n">
-        <v>53.23688306258263</v>
+        <v>53.23688306258264</v>
       </c>
       <c r="L44" t="n">
-        <v>66.0450609663513</v>
+        <v>66.04506096635131</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593782</v>
+        <v>73.48785584593783</v>
       </c>
       <c r="N44" t="n">
-        <v>74.67696618271297</v>
+        <v>74.67696618271299</v>
       </c>
       <c r="O44" t="n">
         <v>70.51534157688528</v>
       </c>
       <c r="P44" t="n">
-        <v>60.18321260578568</v>
+        <v>60.18321260578569</v>
       </c>
       <c r="Q44" t="n">
         <v>45.19508627555768</v>
       </c>
       <c r="R44" t="n">
-        <v>26.28964441441354</v>
+        <v>26.28964441441355</v>
       </c>
       <c r="S44" t="n">
-        <v>9.536947399652934</v>
+        <v>9.536947399652936</v>
       </c>
       <c r="T44" t="n">
         <v>1.83205648895143</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0334813293240695</v>
+        <v>0.03348132932406951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239261312045523</v>
+        <v>0.2239261312045524</v>
       </c>
       <c r="H45" t="n">
-        <v>2.162655004001861</v>
+        <v>2.162655004001862</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086562</v>
+        <v>7.709737412086564</v>
       </c>
       <c r="J45" t="n">
         <v>21.15610873805817</v>
@@ -34451,19 +34451,19 @@
         <v>36.15915952876318</v>
       </c>
       <c r="L45" t="n">
-        <v>48.62045230386563</v>
+        <v>48.62045230386564</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003064</v>
+        <v>56.73777456003065</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411733</v>
+        <v>58.23945462411734</v>
       </c>
       <c r="O45" t="n">
         <v>53.27772298005856</v>
       </c>
       <c r="P45" t="n">
-        <v>42.76006973852544</v>
+        <v>42.76006973852545</v>
       </c>
       <c r="Q45" t="n">
         <v>28.58397422183023</v>
@@ -34475,7 +34475,7 @@
         <v>4.159329673909117</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990506</v>
+        <v>0.9025794498990507</v>
       </c>
       <c r="U45" t="n">
         <v>0.01473198231608898</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356255</v>
+        <v>0.1877321462356256</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622199</v>
+        <v>1.6691094456222</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067722</v>
+        <v>5.645617634067723</v>
       </c>
       <c r="J46" t="n">
         <v>13.27266273885873</v>
@@ -34533,7 +34533,7 @@
         <v>27.91065017761292</v>
       </c>
       <c r="M46" t="n">
-        <v>29.42786725037173</v>
+        <v>29.42786725037174</v>
       </c>
       <c r="N46" t="n">
         <v>28.72813834167534</v>
@@ -34548,13 +34548,13 @@
         <v>15.72000726342134</v>
       </c>
       <c r="R46" t="n">
-        <v>8.44111995710367</v>
+        <v>8.441119957103671</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124491</v>
+        <v>3.271659312124492</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885816</v>
+        <v>0.8021282611885817</v>
       </c>
       <c r="U46" t="n">
         <v>0.01023993524921595</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.26954801765688</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>49.05450173165873</v>
@@ -35425,10 +35425,10 @@
         <v>36.55404110068645</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>45.26954801765754</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>39.36607756419618</v>
       </c>
       <c r="L12" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="M12" t="n">
-        <v>68.84099665492471</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="N12" t="n">
-        <v>98.93990648501767</v>
+        <v>68.84099665492515</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35541,16 +35541,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>22.73893652031384</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.17320693457123</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.67971597305694</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35562,13 +35562,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35.66203234937024</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.49039014520214</v>
+        <v>34.91530548024262</v>
       </c>
       <c r="K13" t="n">
-        <v>25.52870956839175</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,13 +35577,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="Q13" t="n">
         <v>73.58199948956229</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>36.55404110068645</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39.05416247351062</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.26954801765682</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.215385544146926</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>39.36607756419618</v>
       </c>
       <c r="L15" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="M15" t="n">
-        <v>68.84099665492471</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>98.93990648501767</v>
+        <v>68.84099665492515</v>
       </c>
       <c r="P15" t="n">
         <v>85.67516677172183</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.7389365203139</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35793,37 +35793,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>31.66037420357265</v>
+        <v>15.08381899554638</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.66203234937024</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>80.49039014520214</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.254931276669816</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="O16" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.58199948956235</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>94.32404974931559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>98.93990648501767</v>
+        <v>49.05450173165873</v>
       </c>
       <c r="M17" t="n">
         <v>83.75022101202057</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>36.30245476157629</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.967093256081228</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.36607756419618</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="M18" t="n">
-        <v>55.57625694162888</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="N18" t="n">
-        <v>98.93990648501767</v>
+        <v>9.267167734103428</v>
       </c>
       <c r="O18" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.67516677172183</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>64.51217533132395</v>
+        <v>64.5121753313249</v>
       </c>
       <c r="U20" t="n">
-        <v>79.69727917135057</v>
+        <v>79.69727917135052</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>39.36607756419618</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>68.84099665492515</v>
       </c>
       <c r="M21" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="N21" t="n">
-        <v>68.84099665492471</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="P21" t="n">
         <v>85.67516677172183</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>45.26954801765689</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>98.93990648501767</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>64.51217533132467</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>79.69727917135052</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.36607756419618</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>98.93990648501767</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="M24" t="n">
-        <v>68.84099665492471</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="N24" t="n">
-        <v>98.93990648501767</v>
+        <v>94.94233450582527</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>98.9399064850179</v>
       </c>
       <c r="P24" t="n">
-        <v>85.67516677172183</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0803921385444</v>
+        <v>137.0803921385443</v>
       </c>
       <c r="K26" t="n">
         <v>207.6342064794346</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9152160772722</v>
+        <v>261.9152160772724</v>
       </c>
       <c r="M26" t="n">
         <v>296.610935357634</v>
@@ -36610,13 +36610,13 @@
         <v>249.4147554462999</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4652350250902</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q26" t="n">
         <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447849</v>
+        <v>18.72024270447847</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.09194794124395</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4455620497251</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>197.1503689549156</v>
       </c>
       <c r="O28" t="n">
-        <v>90.46545314697455</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.668698300540374</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>296.610935357634</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0545499594512</v>
+        <v>291.0545499594513</v>
       </c>
       <c r="O29" t="n">
         <v>249.4147554462999</v>
       </c>
       <c r="P29" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q29" t="n">
         <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447844</v>
+        <v>18.72024270447847</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,22 +36969,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>11.40867077640466</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.18457313338848</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>10.70428987089789</v>
       </c>
       <c r="G31" t="n">
-        <v>44.16523136390411</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.08336689679577</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.16688950970175</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0221521924135</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.0868566498938</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385442</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6342064794346</v>
+        <v>207.6342064794345</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9152160772715</v>
+        <v>261.915216077272</v>
       </c>
       <c r="M32" t="n">
-        <v>296.610935357634</v>
+        <v>296.6109353576339</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0545499594513</v>
+        <v>291.0545499594511</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4147554462999</v>
+        <v>249.4147554463013</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4652350250911</v>
+        <v>199.4652350250909</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219609</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447847</v>
+        <v>18.72024270447835</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.36607756419618</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L33" t="n">
-        <v>119.8886527290607</v>
+        <v>119.8886527290606</v>
       </c>
       <c r="M33" t="n">
         <v>185.1111344851682</v>
@@ -37160,10 +37160,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O33" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P33" t="n">
-        <v>85.67516677172183</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,19 +37206,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.67806409490268</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.93383212716674</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.16523136390405</v>
       </c>
       <c r="H34" t="n">
-        <v>47.08336689679579</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>180.1589499993637</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>51.13388761072699</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.668698300540374</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>164.7746244838398</v>
+        <v>106.9220947853005</v>
       </c>
       <c r="K35" t="n">
-        <v>235.3284388247301</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>236.9834265902062</v>
+        <v>289.6094484225675</v>
       </c>
       <c r="M35" t="n">
-        <v>324.3051677029296</v>
+        <v>324.3051677029294</v>
       </c>
       <c r="N35" t="n">
-        <v>318.7487823047467</v>
+        <v>318.7487823047466</v>
       </c>
       <c r="O35" t="n">
-        <v>36.55404110068645</v>
+        <v>277.1089877915953</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,13 +37327,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>46.41447504977396</v>
+        <v>46.41447504977387</v>
       </c>
       <c r="S35" t="n">
-        <v>13.30678731250289</v>
+        <v>13.30678731250283</v>
       </c>
       <c r="T35" t="n">
-        <v>18.14070877987235</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.36607756419618</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L36" t="n">
-        <v>119.8886527290607</v>
+        <v>119.8886527290606</v>
       </c>
       <c r="M36" t="n">
         <v>185.1111344851682</v>
@@ -37397,10 +37397,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O36" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P36" t="n">
-        <v>85.67516677172183</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>74.77759924209128</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37482,16 +37482,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>8.262416615453235</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.3629306458358</v>
       </c>
       <c r="S37" t="n">
-        <v>5.209126501223643</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.81599928020659</v>
+        <v>16.81599928020654</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37503,10 +37503,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>7.687786677380744</v>
+        <v>18.63549128266638</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>23.41367387674049</v>
       </c>
     </row>
     <row r="38">
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>164.7746244838398</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K38" t="n">
-        <v>235.3284388247301</v>
+        <v>43.98069104563587</v>
       </c>
       <c r="L38" t="n">
-        <v>49.05450173165873</v>
+        <v>289.6094484225675</v>
       </c>
       <c r="M38" t="n">
-        <v>324.3051677029296</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N38" t="n">
-        <v>284.2634692522577</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1089877915954</v>
+        <v>277.1089877915953</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>152.1172052672564</v>
       </c>
       <c r="R38" t="n">
-        <v>46.41447504977396</v>
+        <v>46.41447504977387</v>
       </c>
       <c r="S38" t="n">
-        <v>13.30678731250289</v>
+        <v>13.30678731250283</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.36607756419618</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L39" t="n">
-        <v>119.8886527290607</v>
+        <v>119.8886527290606</v>
       </c>
       <c r="M39" t="n">
         <v>185.1111344851682</v>
@@ -37634,10 +37634,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O39" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P39" t="n">
-        <v>85.67516677172183</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37674,16 +37674,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.57674670175906</v>
+        <v>5.611706222218544</v>
       </c>
       <c r="C40" t="n">
-        <v>74.09776571893661</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>98.87880547868392</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.81599928020659</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7746244838398</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K41" t="n">
         <v>235.32843882473</v>
       </c>
       <c r="L41" t="n">
-        <v>289.6094484225677</v>
+        <v>289.6094484225675</v>
       </c>
       <c r="M41" t="n">
-        <v>83.75022101202057</v>
+        <v>324.3051677029294</v>
       </c>
       <c r="N41" t="n">
-        <v>78.19383561383778</v>
+        <v>85.37776815177394</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915954</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P41" t="n">
-        <v>67.2592156836664</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.1172052672565</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.41447504977393</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.30678731250283</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.36607756419618</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L42" t="n">
-        <v>119.8886527290607</v>
+        <v>119.8886527290606</v>
       </c>
       <c r="M42" t="n">
         <v>185.1111344851682</v>
@@ -37871,10 +37871,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O42" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P42" t="n">
-        <v>85.67516677172183</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,13 +37914,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>74.09776571893656</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.87880547868394</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.3927459819659</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.611706222218415</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>235.32843882473</v>
       </c>
       <c r="L44" t="n">
-        <v>263.6856932232311</v>
+        <v>49.05450173165875</v>
       </c>
       <c r="M44" t="n">
-        <v>83.75022101202057</v>
+        <v>83.75022101202059</v>
       </c>
       <c r="N44" t="n">
         <v>318.7487823047467</v>
       </c>
       <c r="O44" t="n">
-        <v>36.55404110068645</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P44" t="n">
         <v>227.1594673703865</v>
@@ -38038,13 +38038,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.41447504977393</v>
+        <v>38.63142863031044</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987232</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419618</v>
+        <v>39.36607756419619</v>
       </c>
       <c r="L45" t="n">
         <v>119.8886527290607</v>
       </c>
       <c r="M45" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851683</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570734</v>
       </c>
       <c r="O45" t="n">
         <v>134.5330876491571</v>
       </c>
       <c r="P45" t="n">
-        <v>85.67516677172183</v>
+        <v>85.67516677172185</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,16 +38148,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.93802602594081</v>
       </c>
       <c r="C46" t="n">
-        <v>74.09776571893659</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8.367620200535589</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>41.55248567496165</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.209126501223615</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.81599928020657</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
